--- a/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T18:15:07+00:00</t>
+    <t>2022-10-23T19:27:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T19:27:30+00:00</t>
+    <t>2022-10-23T19:35:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T19:35:12+00:00</t>
+    <t>2022-10-23T20:13:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T20:13:34+00:00</t>
+    <t>2022-10-25T12:14:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-25T12:14:01+00:00</t>
+    <t>2022-10-25T13:47:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-25T13:47:24+00:00</t>
+    <t>2022-10-30T17:01:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T17:01:43+00:00</t>
+    <t>2022-10-30T18:15:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T18:15:34+00:00</t>
+    <t>2022-10-30T20:04:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T20:04:00+00:00</t>
+    <t>2022-10-30T21:50:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T21:50:47+00:00</t>
+    <t>2022-10-30T22:04:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T22:04:36+00:00</t>
+    <t>2022-10-30T22:13:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T22:13:17+00:00</t>
+    <t>2022-11-02T06:16:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-02T06:16:24+00:00</t>
+    <t>2022-11-02T20:48:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-02T20:48:31+00:00</t>
+    <t>2022-11-03T14:07:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-05T15:30:00+00:00</t>
+    <t>2022-11-05T15:35:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-05T15:35:25+00:00</t>
+    <t>2022-11-06T17:03:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -508,7 +508,7 @@
     <t>Dose form of the manufactured item (before preparing for administration)</t>
   </si>
   <si>
-    <t>Dose form as manufactured and before any transformation into the pharmaceutical product.</t>
+    <t>EMA IG 4.11.3</t>
   </si>
   <si>
     <t>example</t>
@@ -715,7 +715,7 @@
     <t>Unit of presentation of the manufactured item (before preparing for administration)</t>
   </si>
   <si>
-    <t>The “real world” units in which the quantity of the manufactured item is described.</t>
+    <t>EMA IG 4.11.1</t>
   </si>
   <si>
     <t>The presentation type in which an administrable medicinal product is given to a patient.</t>

--- a/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-06T17:03:22+00:00</t>
+    <t>2022-11-06T21:19:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -600,7 +600,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>https://spor.ema.europa.eu/rmswi/#/lists/200000000004/terms</t>
+    <t>http://spor.ema.europa.eu/v1/lists/200000000004</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -745,7 +745,7 @@
     <t>ManufacturedItemDefinition.unitOfPresentation.coding.system</t>
   </si>
   <si>
-    <t>https://spor.ema.europa.eu/rmswi/#/lists/200000000014/terms</t>
+    <t>http://spor.ema.europa.eu/v1/lists/200000000014</t>
   </si>
   <si>
     <t>ManufacturedItemDefinition.unitOfPresentation.coding.version</t>

--- a/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-06T21:19:48+00:00</t>
+    <t>2022-11-06T22:26:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-07T21:05:10+00:00</t>
+    <t>2022-11-07T21:23:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-07T21:23:46+00:00</t>
+    <t>2022-11-07T21:31:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-07T21:31:45+00:00</t>
+    <t>2022-11-08T20:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T12:45:51+00:00</t>
+    <t>2022-11-11T12:48:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T12:48:43+00:00</t>
+    <t>2022-11-11T13:10:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="322">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://unicom-project.eu/fhir/StructureDefinition/PPLManufacturedItemDefinition</t>
+    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLManufacturedItemDefinition</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T13:10:08+00:00</t>
+    <t>2022-11-11T15:50:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>4.3.0</t>
+    <t>5.0.0-ballot</t>
   </si>
   <si>
     <t>Kind</t>
@@ -277,7 +277,7 @@
     <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
   </si>
   <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>Within the context of the FHIR RESTful interactions, the resource has an id except for cases like the create and conditional update. Otherwise, the use of the resouce id depends on the given use case.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -367,7 +367,7 @@
     <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
   </si>
   <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>Contained resources do not have a narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -390,17 +390,13 @@
     <t>Contained, inline Resources</t>
   </si>
   <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, nor can they have their own independent transaction scope. This is allowed to be a Parameters resource if and only if it is referenced by a resource that provides context/meaning.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags in their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dom-r4b:Containing new R4B resources within R4 resources may cause interoperability issues if instances are shared with R4 systems {($this is Citation or $this is Evidence or $this is EvidenceReport or $this is EvidenceVariable or $this is MedicinalProductDefinition or $this is PackagedProductDefinition or $this is AdministrableProductDefinition or $this is Ingredient or $this is ClinicalUseDefinition or $this is RegulatedAuthorization or $this is SubstanceDefinition or $this is SubscriptionStatus or $this is SubscriptionTopic) implies (%resource is Citation or %resource is Evidence or %resource is EvidenceReport or %resource is EvidenceVariable or %resource is MedicinalProductDefinition or %resource is PackagedProductDefinition or %resource is AdministrableProductDefinition or %resource is Ingredient or %resource is ClinicalUseDefinition or %resource is RegulatedAuthorization or %resource is SubstanceDefinition or %resource is SubscriptionStatus or %resource is SubscriptionTopic)}
-</t>
   </si>
   <si>
     <t>N/A</t>
@@ -443,7 +439,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/2021Mar/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://build.fhir.org/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -465,6 +461,9 @@
     <t>n/a</t>
   </si>
   <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
     <t>ManufacturedItemDefinition.status</t>
   </si>
   <si>
@@ -483,7 +482,20 @@
     <t>The lifecycle status of an artifact.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/publication-status|4.3.0</t>
+    <t>http://hl7.org/fhir/ValueSet/publication-status|5.0.0-ballot</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>A descriptive name applied to this item</t>
+  </si>
+  <si>
+    <t>A descriptive name applied to this item.</t>
   </si>
   <si>
     <t>ManufacturedItemDefinition.manufacturedDoseForm</t>
@@ -582,7 +594,7 @@
     <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
   </si>
   <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should be an absolute reference to some definition that establishes the system clearly and unambiguously.</t>
   </si>
   <si>
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
@@ -598,10 +610,6 @@
   </si>
   <si>
     <t>ManufacturedItemDefinition.manufacturedDoseForm.coding.version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Version of the system - if relevant</t>
@@ -762,13 +770,26 @@
 </t>
   </si>
   <si>
-    <t>Manufacturer of the item (Note that this should be named "manufacturer" but it currently causes technical issues)</t>
-  </si>
-  <si>
-    <t>Manufacturer of the item (Note that this should be named "manufacturer" but it currently causes technical issues).</t>
+    <t>Manufacturer of the item, one of several possible</t>
+  </si>
+  <si>
+    <t>Manufacturer of the item, one of several possible.</t>
   </si>
   <si>
     <t>Manufactured Item.Manufacturer / Establishment (Organisation)</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.marketingStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MarketingStatus
+</t>
+  </si>
+  <si>
+    <t>Allows specifying that an item is on the market for sale, or that it is not available, and the dates and locations associated</t>
+  </si>
+  <si>
+    <t>Allows specifying that an item is on the market for sale, or that it is not available, and the dates and locations associated.</t>
   </si>
   <si>
     <t>ManufacturedItemDefinition.ingredient</t>
@@ -802,10 +823,6 @@
     <t>General characteristics of this item.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
-</t>
-  </si>
-  <si>
     <t>Manufactured Item.Physical Characteristics</t>
   </si>
   <si>
@@ -864,6 +881,131 @@
   </si>
   <si>
     <t>Physical Characteristics, attribute's value</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.component</t>
+  </si>
+  <si>
+    <t>Physical parts of the manufactured item, that it is intrisically made from. This is distinct from the ingredients that are part of its chemical makeup</t>
+  </si>
+  <si>
+    <t>Physical parts of the manufactured item, that it is intrisically made from. This is distinct from the ingredients that are part of its chemical makeup.</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.component.id</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.component.extension</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.component.modifierExtension</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.component.type</t>
+  </si>
+  <si>
+    <t>Defining type of the component e.g. shell, layer, ink</t>
+  </si>
+  <si>
+    <t>Defining type of the component e.g. shell, layer, ink.</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.component.function</t>
+  </si>
+  <si>
+    <t>The function of this component within the item e.g. delivers active ingredient, masks taste</t>
+  </si>
+  <si>
+    <t>The function of this component within the item e.g. delivers active ingredient, masks taste.</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.component.amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity
+</t>
+  </si>
+  <si>
+    <t>The measurable amount of substance in this component, expressable in different ways (e.g. by mass or volume)</t>
+  </si>
+  <si>
+    <t>The measurable amount of substance in this component, expressable in different ways (e.g. by mass or volume).</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.component.constituent</t>
+  </si>
+  <si>
+    <t>A reference to an constituent of the manufactured item as a whole, linked here so that its component location within the item can be indicated. This not where the item's ingredient are primarily stated (for which see Ingredient.for or ManufacturedItemDefinition.ingredient)</t>
+  </si>
+  <si>
+    <t>A reference to an constituent of the manufactured item as a whole, linked here so that its component location within the item can be indicated. This not where the item's ingredient are primarily stated (for which see Ingredient.for or ManufacturedItemDefinition.ingredient).</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.component.constituent.id</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.component.constituent.extension</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.component.constituent.modifierExtension</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.component.constituent.amount</t>
+  </si>
+  <si>
+    <t>The measurable amount of this constituent in this component, expressable in different ways (e.g. by mass or volume)</t>
+  </si>
+  <si>
+    <t>The measurable amount of this constituent in this component, expressable in different ways (e.g. by mass or volume).</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.component.constituent.location</t>
+  </si>
+  <si>
+    <t>The type of location of the constituent within this component e.g. intragranular, blend</t>
+  </si>
+  <si>
+    <t>The type of location of the constituent within this component e.g. intragranular, blend.</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.component.constituent.function</t>
+  </si>
+  <si>
+    <t>The function of this constituent within the component e.g. binder</t>
+  </si>
+  <si>
+    <t>The function of this constituent within the component e.g. binder.</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.component.constituent.locationForIngredient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableReference(Ingredient)
+</t>
+  </si>
+  <si>
+    <t>An ingredient that this component is the location of in this manufactured item. The component is physically made of this ingredient (and possibly others), rather than just being a container for it</t>
+  </si>
+  <si>
+    <t>An ingredient that this component is the location for in this manufactured item. The component is physically made of this ingredient (and possibly others), rather than just being a container for it.</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.component.property</t>
+  </si>
+  <si>
+    <t>General characteristics of this component</t>
+  </si>
+  <si>
+    <t>General characteristics of this component.</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.component.component</t>
+  </si>
+  <si>
+    <t>A component that this component contains or is made from</t>
+  </si>
+  <si>
+    <t>A component that this component contains or is made from.</t>
   </si>
 </sst>
 </file>
@@ -1160,7 +1302,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL44"/>
+  <dimension ref="A1:AL63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1169,7 +1311,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="68.91796875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="68.9453125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1179,7 +1321,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="132.91015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="252.22265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1193,13 +1335,13 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="104.4296875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.50390625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.76953125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="49.6796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="68.9453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
@@ -2065,25 +2207,25 @@
         <v>73</v>
       </c>
       <c r="AI8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL8" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL8" t="s" s="2">
-        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2102,16 +2244,16 @@
         <v>73</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2161,7 +2303,7 @@
         <v>73</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>74</v>
@@ -2173,7 +2315,7 @@
         <v>73</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>73</v>
@@ -2182,16 +2324,16 @@
         <v>73</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2207,22 +2349,22 @@
         <v>83</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>73</v>
@@ -2271,7 +2413,7 @@
         <v>73</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>74</v>
@@ -2283,7 +2425,7 @@
         <v>73</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>73</v>
@@ -2292,12 +2434,12 @@
         <v>73</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2320,13 +2462,13 @@
         <v>83</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2377,7 +2519,7 @@
         <v>73</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>74</v>
@@ -2392,10 +2534,10 @@
         <v>94</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>73</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>73</v>
@@ -2500,7 +2642,7 @@
         <v>94</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>73</v>
@@ -2519,7 +2661,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>82</v>
@@ -2567,13 +2709,13 @@
         <v>73</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>156</v>
+        <v>73</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>73</v>
@@ -2594,7 +2736,7 @@
         <v>152</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>82</v>
@@ -2606,10 +2748,10 @@
         <v>94</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>73</v>
@@ -2617,7 +2759,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2625,7 +2767,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>82</v>
@@ -2637,16 +2779,16 @@
         <v>73</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>84</v>
+        <v>157</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2673,13 +2815,13 @@
         <v>73</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>73</v>
+        <v>162</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>73</v>
@@ -2697,10 +2839,10 @@
         <v>73</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>82</v>
@@ -2709,16 +2851,16 @@
         <v>73</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>73</v>
+        <v>163</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>144</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15">
@@ -2727,14 +2869,14 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>73</v>
@@ -2746,17 +2888,15 @@
         <v>73</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>73</v>
@@ -2793,31 +2933,31 @@
         <v>73</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>166</v>
+        <v>73</v>
       </c>
       <c r="AB15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE15" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AC15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>169</v>
-      </c>
       <c r="AF15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>73</v>
@@ -2826,16 +2966,16 @@
         <v>73</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -2851,23 +2991,21 @@
         <v>73</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>171</v>
+        <v>128</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>172</v>
+        <v>129</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>73</v>
       </c>
@@ -2903,19 +3041,19 @@
         <v>73</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>73</v>
+        <v>170</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>73</v>
+        <v>171</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>73</v>
+        <v>172</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>74</v>
@@ -2927,7 +3065,7 @@
         <v>73</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>73</v>
@@ -2936,12 +3074,12 @@
         <v>73</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>177</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2952,7 +3090,7 @@
         <v>74</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>73</v>
@@ -2961,19 +3099,23 @@
         <v>73</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>84</v>
+        <v>175</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="O17" t="s" s="2">
         <v>73</v>
       </c>
@@ -3021,19 +3163,19 @@
         <v>73</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>73</v>
@@ -3042,23 +3184,23 @@
         <v>73</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>144</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>73</v>
@@ -3070,17 +3212,15 @@
         <v>73</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>73</v>
@@ -3117,31 +3257,31 @@
         <v>73</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>166</v>
+        <v>73</v>
       </c>
       <c r="AB18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE18" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AC18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>169</v>
-      </c>
       <c r="AF18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>73</v>
@@ -3150,23 +3290,23 @@
         <v>73</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>73</v>
@@ -3175,23 +3315,21 @@
         <v>73</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>181</v>
+        <v>129</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>73</v>
       </c>
@@ -3200,7 +3338,7 @@
         <v>73</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>185</v>
+        <v>73</v>
       </c>
       <c r="S19" t="s" s="2">
         <v>73</v>
@@ -3227,31 +3365,31 @@
         <v>73</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>73</v>
+        <v>170</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>73</v>
+        <v>171</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>73</v>
+        <v>172</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>73</v>
@@ -3260,12 +3398,12 @@
         <v>73</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>187</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3288,18 +3426,20 @@
         <v>83</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>189</v>
+        <v>96</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>73</v>
       </c>
@@ -3308,7 +3448,7 @@
         <v>73</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>73</v>
+        <v>189</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>73</v>
@@ -3347,7 +3487,7 @@
         <v>73</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>74</v>
@@ -3368,12 +3508,12 @@
         <v>73</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3396,18 +3536,18 @@
         <v>83</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>102</v>
+        <v>153</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>73</v>
       </c>
@@ -3455,7 +3595,7 @@
         <v>73</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>74</v>
@@ -3476,12 +3616,12 @@
         <v>73</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3504,17 +3644,17 @@
         <v>83</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>73</v>
@@ -3563,7 +3703,7 @@
         <v>73</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>74</v>
@@ -3584,12 +3724,12 @@
         <v>73</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3612,19 +3752,17 @@
         <v>83</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>208</v>
+        <v>153</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>73</v>
@@ -3673,7 +3811,7 @@
         <v>73</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>74</v>
@@ -3694,12 +3832,12 @@
         <v>73</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3722,19 +3860,19 @@
         <v>83</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>73</v>
@@ -3783,7 +3921,7 @@
         <v>73</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>74</v>
@@ -3804,12 +3942,12 @@
         <v>73</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3817,7 +3955,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>82</v>
@@ -3835,13 +3973,17 @@
         <v>153</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>73</v>
       </c>
@@ -3865,13 +4007,13 @@
         <v>73</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>156</v>
+        <v>73</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>225</v>
+        <v>73</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>226</v>
+        <v>73</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>73</v>
@@ -3889,7 +4031,7 @@
         <v>73</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>74</v>
@@ -3904,18 +4046,18 @@
         <v>94</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>227</v>
+        <v>73</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>73</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3923,7 +4065,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>82</v>
@@ -3935,16 +4077,16 @@
         <v>73</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>84</v>
+        <v>157</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>161</v>
+        <v>226</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>162</v>
+        <v>227</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3971,13 +4113,13 @@
         <v>73</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>73</v>
+        <v>228</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>73</v>
+        <v>229</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>73</v>
@@ -3995,7 +4137,7 @@
         <v>73</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>163</v>
+        <v>225</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>74</v>
@@ -4007,32 +4149,32 @@
         <v>73</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>73</v>
+        <v>230</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>144</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>73</v>
@@ -4044,17 +4186,15 @@
         <v>73</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>73</v>
@@ -4091,31 +4231,31 @@
         <v>73</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>166</v>
+        <v>73</v>
       </c>
       <c r="AB27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE27" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AC27" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>169</v>
-      </c>
       <c r="AF27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>73</v>
@@ -4124,16 +4264,16 @@
         <v>73</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4149,23 +4289,21 @@
         <v>73</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>171</v>
+        <v>128</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>172</v>
+        <v>129</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>73</v>
       </c>
@@ -4201,19 +4339,19 @@
         <v>73</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>73</v>
+        <v>170</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>73</v>
+        <v>171</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>73</v>
+        <v>172</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>74</v>
@@ -4225,7 +4363,7 @@
         <v>73</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>73</v>
@@ -4234,12 +4372,12 @@
         <v>73</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>177</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4250,7 +4388,7 @@
         <v>74</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>73</v>
@@ -4259,19 +4397,23 @@
         <v>73</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>84</v>
+        <v>175</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>73</v>
       </c>
@@ -4319,19 +4461,19 @@
         <v>73</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>73</v>
@@ -4340,23 +4482,23 @@
         <v>73</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>144</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>73</v>
@@ -4368,17 +4510,15 @@
         <v>73</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>73</v>
@@ -4415,31 +4555,31 @@
         <v>73</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>166</v>
+        <v>73</v>
       </c>
       <c r="AB30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE30" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AC30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>169</v>
-      </c>
       <c r="AF30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>73</v>
@@ -4448,23 +4588,23 @@
         <v>73</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>73</v>
@@ -4473,23 +4613,21 @@
         <v>73</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>181</v>
+        <v>129</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>73</v>
       </c>
@@ -4498,7 +4636,7 @@
         <v>73</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>234</v>
+        <v>73</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>73</v>
@@ -4525,31 +4663,31 @@
         <v>73</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>73</v>
+        <v>170</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>73</v>
+        <v>171</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>73</v>
+        <v>172</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>73</v>
@@ -4558,12 +4696,12 @@
         <v>73</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>187</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4586,18 +4724,20 @@
         <v>83</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>189</v>
+        <v>96</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>73</v>
       </c>
@@ -4606,7 +4746,7 @@
         <v>73</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>73</v>
+        <v>237</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>73</v>
@@ -4645,7 +4785,7 @@
         <v>73</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>74</v>
@@ -4666,12 +4806,12 @@
         <v>73</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4694,18 +4834,18 @@
         <v>83</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>102</v>
+        <v>153</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="M33" s="2"/>
-      <c r="N33" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>73</v>
       </c>
@@ -4753,7 +4893,7 @@
         <v>73</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>74</v>
@@ -4774,12 +4914,12 @@
         <v>73</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4802,17 +4942,17 @@
         <v>83</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>73</v>
@@ -4861,7 +5001,7 @@
         <v>73</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>74</v>
@@ -4882,12 +5022,12 @@
         <v>73</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4910,19 +5050,17 @@
         <v>83</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>208</v>
+        <v>153</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>73</v>
@@ -4971,7 +5109,7 @@
         <v>73</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>74</v>
@@ -4992,12 +5130,12 @@
         <v>73</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5020,19 +5158,19 @@
         <v>83</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>73</v>
@@ -5081,7 +5219,7 @@
         <v>73</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>74</v>
@@ -5102,12 +5240,12 @@
         <v>73</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5118,7 +5256,7 @@
         <v>74</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>73</v>
@@ -5130,16 +5268,20 @@
         <v>83</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>241</v>
+        <v>153</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>73</v>
       </c>
@@ -5187,13 +5329,13 @@
         <v>73</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>73</v>
@@ -5202,18 +5344,18 @@
         <v>94</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>244</v>
+        <v>73</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>73</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5236,13 +5378,13 @@
         <v>83</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>153</v>
+        <v>244</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5269,13 +5411,13 @@
         <v>73</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>156</v>
+        <v>73</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>248</v>
+        <v>73</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>249</v>
+        <v>73</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>73</v>
@@ -5293,7 +5435,7 @@
         <v>73</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>74</v>
@@ -5308,7 +5450,7 @@
         <v>94</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>73</v>
@@ -5319,7 +5461,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5342,13 +5484,13 @@
         <v>83</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5399,7 +5541,7 @@
         <v>73</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>74</v>
@@ -5411,10 +5553,10 @@
         <v>73</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>255</v>
+        <v>94</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>256</v>
+        <v>143</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>73</v>
@@ -5425,7 +5567,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5436,7 +5578,7 @@
         <v>74</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>73</v>
@@ -5445,16 +5587,16 @@
         <v>73</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>161</v>
+        <v>253</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>162</v>
+        <v>254</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5481,13 +5623,13 @@
         <v>73</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>73</v>
+        <v>255</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>73</v>
+        <v>256</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>73</v>
@@ -5505,28 +5647,28 @@
         <v>73</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>163</v>
+        <v>252</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>73</v>
+        <v>257</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>144</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41">
@@ -5535,7 +5677,7 @@
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -5551,20 +5693,18 @@
         <v>73</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>129</v>
+        <v>259</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>73</v>
@@ -5613,7 +5753,7 @@
         <v>73</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>169</v>
+        <v>258</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>74</v>
@@ -5625,57 +5765,53 @@
         <v>73</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>73</v>
+        <v>262</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>144</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>260</v>
+        <v>73</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>261</v>
+        <v>165</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>73</v>
       </c>
@@ -5723,19 +5859,19 @@
         <v>73</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>263</v>
+        <v>167</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>73</v>
@@ -5744,7 +5880,7 @@
         <v>73</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>126</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43">
@@ -5753,14 +5889,14 @@
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>73</v>
@@ -5769,18 +5905,20 @@
         <v>73</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>265</v>
+        <v>129</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>73</v>
@@ -5805,13 +5943,13 @@
         <v>73</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>156</v>
+        <v>73</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>267</v>
+        <v>73</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>268</v>
+        <v>73</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>73</v>
@@ -5829,65 +5967,69 @@
         <v>73</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>264</v>
+        <v>173</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>269</v>
+        <v>73</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>73</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>73</v>
+        <v>266</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>271</v>
+        <v>128</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>73</v>
       </c>
@@ -5935,27 +6077,2053 @@
         <v>73</v>
       </c>
       <c r="AE44" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="AF44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG44" t="s" s="2">
+      <c r="B45" s="2"/>
+      <c r="C45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="AH44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI44" t="s" s="2">
+      <c r="F45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI45" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AJ44" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AJ45" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL63" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="275">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLManufacturedItemDefinition</t>
+    <t>http://unicom-project.eu/fhir/StructureDefinition/PPLManufacturedItemDefinition</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T20:48:35+00:00</t>
+    <t>2022-11-12T19:50:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>4.3.0</t>
   </si>
   <si>
     <t>Kind</t>
@@ -277,7 +277,7 @@
     <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
   </si>
   <si>
-    <t>Within the context of the FHIR RESTful interactions, the resource has an id except for cases like the create and conditional update. Otherwise, the use of the resouce id depends on the given use case.</t>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -367,7 +367,7 @@
     <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
   </si>
   <si>
-    <t>Contained resources do not have a narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -390,13 +390,17 @@
     <t>Contained, inline Resources</t>
   </si>
   <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, nor can they have their own independent transaction scope. This is allowed to be a Parameters resource if and only if it is referenced by a resource that provides context/meaning.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags in their meta elements, but SHALL NOT have security labels.</t>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dom-r4b:Containing new R4B resources within R4 resources may cause interoperability issues if instances are shared with R4 systems {($this is Citation or $this is Evidence or $this is EvidenceReport or $this is EvidenceVariable or $this is MedicinalProductDefinition or $this is PackagedProductDefinition or $this is AdministrableProductDefinition or $this is Ingredient or $this is ClinicalUseDefinition or $this is RegulatedAuthorization or $this is SubstanceDefinition or $this is SubscriptionStatus or $this is SubscriptionTopic) implies (%resource is Citation or %resource is Evidence or %resource is EvidenceReport or %resource is EvidenceVariable or %resource is MedicinalProductDefinition or %resource is PackagedProductDefinition or %resource is AdministrableProductDefinition or %resource is Ingredient or %resource is ClinicalUseDefinition or %resource is RegulatedAuthorization or %resource is SubstanceDefinition or %resource is SubscriptionStatus or %resource is SubscriptionTopic)}
+</t>
   </si>
   <si>
     <t>N/A</t>
@@ -439,7 +443,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://build.fhir.org/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/2021Mar/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -461,9 +465,6 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
     <t>ManufacturedItemDefinition.status</t>
   </si>
   <si>
@@ -482,136 +483,127 @@
     <t>The lifecycle status of an artifact.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/publication-status|5.0.0-ballot</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.name</t>
+    <t>http://hl7.org/fhir/ValueSet/publication-status|4.3.0</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.manufacturedDoseForm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Dose form of the manufactured item (before preparing for administration)</t>
+  </si>
+  <si>
+    <t>EMA IG 4.11.3</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Dose form for a medication, in the form suitable for administering to the patient, after mixing, where necessary.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/manufactured-dose-form</t>
+  </si>
+  <si>
+    <t>Manufactured Item.Manufactured Dose Form</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.manufacturedDoseForm.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.manufacturedDoseForm.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.manufacturedDoseForm.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.manufacturedDoseForm.coding.id</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.manufacturedDoseForm.coding.extension</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.manufacturedDoseForm.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://spor.ema.europa.eu/v1/lists/200000000004</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.manufacturedDoseForm.coding.version</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>A descriptive name applied to this item</t>
-  </si>
-  <si>
-    <t>A descriptive name applied to this item.</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.manufacturedDoseForm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Dose form of the manufactured item (before preparing for administration)</t>
-  </si>
-  <si>
-    <t>EMA IG 4.11.3</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Dose form for a medication, in the form suitable for administering to the patient, after mixing, where necessary.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/manufactured-dose-form</t>
-  </si>
-  <si>
-    <t>Manufactured Item.Manufactured Dose Form</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.manufacturedDoseForm.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.manufacturedDoseForm.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.manufacturedDoseForm.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.manufacturedDoseForm.coding.id</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.manufacturedDoseForm.coding.extension</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.manufacturedDoseForm.coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should be an absolute reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>http://spor.ema.europa.eu/v1/lists/200000000004</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.manufacturedDoseForm.coding.version</t>
-  </si>
-  <si>
     <t>Version of the system - if relevant</t>
   </si>
   <si>
@@ -770,26 +762,13 @@
 </t>
   </si>
   <si>
-    <t>Manufacturer of the item, one of several possible</t>
-  </si>
-  <si>
-    <t>Manufacturer of the item, one of several possible.</t>
+    <t>Manufacturer of the item (Note that this should be named "manufacturer" but it currently causes technical issues)</t>
+  </si>
+  <si>
+    <t>Manufacturer of the item (Note that this should be named "manufacturer" but it currently causes technical issues).</t>
   </si>
   <si>
     <t>Manufactured Item.Manufacturer / Establishment (Organisation)</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.marketingStatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MarketingStatus
-</t>
-  </si>
-  <si>
-    <t>Allows specifying that an item is on the market for sale, or that it is not available, and the dates and locations associated</t>
-  </si>
-  <si>
-    <t>Allows specifying that an item is on the market for sale, or that it is not available, and the dates and locations associated.</t>
   </si>
   <si>
     <t>ManufacturedItemDefinition.ingredient</t>
@@ -823,6 +802,10 @@
     <t>General characteristics of this item.</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
+</t>
+  </si>
+  <si>
     <t>Manufactured Item.Physical Characteristics</t>
   </si>
   <si>
@@ -881,131 +864,6 @@
   </si>
   <si>
     <t>Physical Characteristics, attribute's value</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.component</t>
-  </si>
-  <si>
-    <t>Physical parts of the manufactured item, that it is intrisically made from. This is distinct from the ingredients that are part of its chemical makeup</t>
-  </si>
-  <si>
-    <t>Physical parts of the manufactured item, that it is intrisically made from. This is distinct from the ingredients that are part of its chemical makeup.</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.component.id</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.component.extension</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.component.modifierExtension</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.component.type</t>
-  </si>
-  <si>
-    <t>Defining type of the component e.g. shell, layer, ink</t>
-  </si>
-  <si>
-    <t>Defining type of the component e.g. shell, layer, ink.</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.component.function</t>
-  </si>
-  <si>
-    <t>The function of this component within the item e.g. delivers active ingredient, masks taste</t>
-  </si>
-  <si>
-    <t>The function of this component within the item e.g. delivers active ingredient, masks taste.</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.component.amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity
-</t>
-  </si>
-  <si>
-    <t>The measurable amount of substance in this component, expressable in different ways (e.g. by mass or volume)</t>
-  </si>
-  <si>
-    <t>The measurable amount of substance in this component, expressable in different ways (e.g. by mass or volume).</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.component.constituent</t>
-  </si>
-  <si>
-    <t>A reference to an constituent of the manufactured item as a whole, linked here so that its component location within the item can be indicated. This not where the item's ingredient are primarily stated (for which see Ingredient.for or ManufacturedItemDefinition.ingredient)</t>
-  </si>
-  <si>
-    <t>A reference to an constituent of the manufactured item as a whole, linked here so that its component location within the item can be indicated. This not where the item's ingredient are primarily stated (for which see Ingredient.for or ManufacturedItemDefinition.ingredient).</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.component.constituent.id</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.component.constituent.extension</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.component.constituent.modifierExtension</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.component.constituent.amount</t>
-  </si>
-  <si>
-    <t>The measurable amount of this constituent in this component, expressable in different ways (e.g. by mass or volume)</t>
-  </si>
-  <si>
-    <t>The measurable amount of this constituent in this component, expressable in different ways (e.g. by mass or volume).</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.component.constituent.location</t>
-  </si>
-  <si>
-    <t>The type of location of the constituent within this component e.g. intragranular, blend</t>
-  </si>
-  <si>
-    <t>The type of location of the constituent within this component e.g. intragranular, blend.</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.component.constituent.function</t>
-  </si>
-  <si>
-    <t>The function of this constituent within the component e.g. binder</t>
-  </si>
-  <si>
-    <t>The function of this constituent within the component e.g. binder.</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.component.constituent.locationForIngredient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableReference(Ingredient)
-</t>
-  </si>
-  <si>
-    <t>An ingredient that this component is the location of in this manufactured item. The component is physically made of this ingredient (and possibly others), rather than just being a container for it</t>
-  </si>
-  <si>
-    <t>An ingredient that this component is the location for in this manufactured item. The component is physically made of this ingredient (and possibly others), rather than just being a container for it.</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.component.property</t>
-  </si>
-  <si>
-    <t>General characteristics of this component</t>
-  </si>
-  <si>
-    <t>General characteristics of this component.</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.component.component</t>
-  </si>
-  <si>
-    <t>A component that this component contains or is made from</t>
-  </si>
-  <si>
-    <t>A component that this component contains or is made from.</t>
   </si>
 </sst>
 </file>
@@ -1302,7 +1160,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL63"/>
+  <dimension ref="A1:AL44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1311,7 +1169,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="68.9453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="68.91796875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1321,7 +1179,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="252.22265625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="132.91015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1335,13 +1193,13 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="104.4296875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.76953125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="52.50390625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="68.9453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="49.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
@@ -2207,7 +2065,7 @@
         <v>73</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>73</v>
@@ -2216,16 +2074,16 @@
         <v>73</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2244,16 +2102,16 @@
         <v>73</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2303,7 +2161,7 @@
         <v>73</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>74</v>
@@ -2315,7 +2173,7 @@
         <v>73</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>73</v>
@@ -2324,16 +2182,16 @@
         <v>73</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2349,22 +2207,22 @@
         <v>83</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>73</v>
@@ -2413,7 +2271,7 @@
         <v>73</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>74</v>
@@ -2425,7 +2283,7 @@
         <v>73</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>73</v>
@@ -2434,12 +2292,12 @@
         <v>73</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2462,13 +2320,13 @@
         <v>83</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2519,7 +2377,7 @@
         <v>73</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>74</v>
@@ -2534,10 +2392,10 @@
         <v>94</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>73</v>
@@ -2642,7 +2500,7 @@
         <v>94</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>73</v>
@@ -2661,7 +2519,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>82</v>
@@ -2709,13 +2567,13 @@
         <v>73</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>73</v>
@@ -2736,7 +2594,7 @@
         <v>152</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>82</v>
@@ -2748,10 +2606,10 @@
         <v>94</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>73</v>
@@ -2759,7 +2617,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2767,7 +2625,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>82</v>
@@ -2779,16 +2637,16 @@
         <v>73</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2815,13 +2673,13 @@
         <v>73</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>161</v>
+        <v>73</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>162</v>
+        <v>73</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>73</v>
@@ -2839,10 +2697,10 @@
         <v>73</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>82</v>
@@ -2851,16 +2709,16 @@
         <v>73</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>163</v>
+        <v>73</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>73</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15">
@@ -2869,14 +2727,14 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>73</v>
@@ -2888,15 +2746,17 @@
         <v>73</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L15" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M15" s="2"/>
+      <c r="M15" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>73</v>
@@ -2933,31 +2793,31 @@
         <v>73</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>73</v>
+        <v>166</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>73</v>
+        <v>167</v>
       </c>
       <c r="AC15" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>73</v>
+        <v>168</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>73</v>
@@ -2966,16 +2826,16 @@
         <v>73</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -2991,21 +2851,23 @@
         <v>73</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="O16" t="s" s="2">
         <v>73</v>
       </c>
@@ -3041,19 +2903,19 @@
         <v>73</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>170</v>
+        <v>73</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>171</v>
+        <v>73</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>172</v>
+        <v>73</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>74</v>
@@ -3065,7 +2927,7 @@
         <v>73</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>73</v>
@@ -3074,12 +2936,12 @@
         <v>73</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>143</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3090,7 +2952,7 @@
         <v>74</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>73</v>
@@ -3099,23 +2961,19 @@
         <v>73</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>175</v>
+        <v>84</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>73</v>
       </c>
@@ -3163,19 +3021,19 @@
         <v>73</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>73</v>
@@ -3184,23 +3042,23 @@
         <v>73</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>181</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>73</v>
@@ -3212,15 +3070,17 @@
         <v>73</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L18" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M18" s="2"/>
+      <c r="M18" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>73</v>
@@ -3257,31 +3117,31 @@
         <v>73</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>73</v>
+        <v>166</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>73</v>
+        <v>167</v>
       </c>
       <c r="AC18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>73</v>
+        <v>168</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>73</v>
@@ -3290,23 +3150,23 @@
         <v>73</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>73</v>
@@ -3315,21 +3175,23 @@
         <v>73</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>129</v>
+        <v>181</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>73</v>
       </c>
@@ -3338,7 +3200,7 @@
         <v>73</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>73</v>
+        <v>185</v>
       </c>
       <c r="S19" t="s" s="2">
         <v>73</v>
@@ -3365,31 +3227,31 @@
         <v>73</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>170</v>
+        <v>73</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>171</v>
+        <v>73</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>172</v>
+        <v>73</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>73</v>
@@ -3398,12 +3260,12 @@
         <v>73</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>143</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3426,20 +3288,18 @@
         <v>83</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>96</v>
+        <v>189</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>188</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>73</v>
       </c>
@@ -3448,7 +3308,7 @@
         <v>73</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>189</v>
+        <v>73</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>73</v>
@@ -3487,7 +3347,7 @@
         <v>73</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>74</v>
@@ -3508,12 +3368,12 @@
         <v>73</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3536,18 +3396,18 @@
         <v>83</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>153</v>
+        <v>102</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>73</v>
       </c>
@@ -3595,7 +3455,7 @@
         <v>73</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>74</v>
@@ -3616,12 +3476,12 @@
         <v>73</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3644,17 +3504,17 @@
         <v>83</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>102</v>
+        <v>189</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>73</v>
@@ -3703,7 +3563,7 @@
         <v>73</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>74</v>
@@ -3724,12 +3584,12 @@
         <v>73</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3752,17 +3612,19 @@
         <v>83</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>153</v>
+        <v>208</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="N23" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>73</v>
@@ -3811,7 +3673,7 @@
         <v>73</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>74</v>
@@ -3832,12 +3694,12 @@
         <v>73</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3860,19 +3722,19 @@
         <v>83</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>73</v>
@@ -3921,7 +3783,7 @@
         <v>73</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>74</v>
@@ -3942,12 +3804,12 @@
         <v>73</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3955,7 +3817,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>82</v>
@@ -3973,17 +3835,13 @@
         <v>153</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>73</v>
       </c>
@@ -4007,13 +3865,13 @@
         <v>73</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>73</v>
+        <v>225</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>73</v>
+        <v>226</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>73</v>
@@ -4031,7 +3889,7 @@
         <v>73</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>74</v>
@@ -4046,18 +3904,18 @@
         <v>94</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>73</v>
+        <v>227</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>224</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4065,7 +3923,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>82</v>
@@ -4077,16 +3935,16 @@
         <v>73</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>226</v>
+        <v>161</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>227</v>
+        <v>162</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4113,13 +3971,13 @@
         <v>73</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>228</v>
+        <v>73</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>229</v>
+        <v>73</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>73</v>
@@ -4137,7 +3995,7 @@
         <v>73</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>225</v>
+        <v>163</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>74</v>
@@ -4149,32 +4007,32 @@
         <v>73</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>230</v>
+        <v>73</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>73</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>73</v>
@@ -4186,15 +4044,17 @@
         <v>73</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L27" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M27" s="2"/>
+      <c r="M27" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>73</v>
@@ -4231,31 +4091,31 @@
         <v>73</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>73</v>
+        <v>166</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>73</v>
+        <v>167</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>73</v>
+        <v>168</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>73</v>
@@ -4264,16 +4124,16 @@
         <v>73</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4289,21 +4149,23 @@
         <v>73</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>73</v>
       </c>
@@ -4339,19 +4201,19 @@
         <v>73</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>170</v>
+        <v>73</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>171</v>
+        <v>73</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>172</v>
+        <v>73</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>74</v>
@@ -4363,7 +4225,7 @@
         <v>73</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>73</v>
@@ -4372,12 +4234,12 @@
         <v>73</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>143</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4388,7 +4250,7 @@
         <v>74</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>73</v>
@@ -4397,23 +4259,19 @@
         <v>73</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>175</v>
+        <v>84</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>73</v>
       </c>
@@ -4461,19 +4319,19 @@
         <v>73</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>73</v>
@@ -4482,23 +4340,23 @@
         <v>73</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>181</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>73</v>
@@ -4510,15 +4368,17 @@
         <v>73</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L30" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M30" s="2"/>
+      <c r="M30" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>73</v>
@@ -4555,31 +4415,31 @@
         <v>73</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>73</v>
+        <v>166</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>73</v>
+        <v>167</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>73</v>
+        <v>168</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>73</v>
@@ -4588,23 +4448,23 @@
         <v>73</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>73</v>
@@ -4613,21 +4473,23 @@
         <v>73</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>129</v>
+        <v>181</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>73</v>
       </c>
@@ -4636,7 +4498,7 @@
         <v>73</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>73</v>
+        <v>234</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>73</v>
@@ -4663,31 +4525,31 @@
         <v>73</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>170</v>
+        <v>73</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>171</v>
+        <v>73</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>172</v>
+        <v>73</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>73</v>
@@ -4696,12 +4558,12 @@
         <v>73</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>143</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4724,20 +4586,18 @@
         <v>83</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>96</v>
+        <v>189</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>188</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>73</v>
       </c>
@@ -4746,7 +4606,7 @@
         <v>73</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>237</v>
+        <v>73</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>73</v>
@@ -4785,7 +4645,7 @@
         <v>73</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>74</v>
@@ -4806,12 +4666,12 @@
         <v>73</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4834,18 +4694,18 @@
         <v>83</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>153</v>
+        <v>102</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>73</v>
       </c>
@@ -4893,7 +4753,7 @@
         <v>73</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>74</v>
@@ -4914,12 +4774,12 @@
         <v>73</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4942,17 +4802,17 @@
         <v>83</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>102</v>
+        <v>189</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>73</v>
@@ -5001,7 +4861,7 @@
         <v>73</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>74</v>
@@ -5022,12 +4882,12 @@
         <v>73</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5050,17 +4910,19 @@
         <v>83</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>153</v>
+        <v>208</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="N35" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>73</v>
@@ -5109,7 +4971,7 @@
         <v>73</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>74</v>
@@ -5130,12 +4992,12 @@
         <v>73</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5158,19 +5020,19 @@
         <v>83</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>73</v>
@@ -5219,7 +5081,7 @@
         <v>73</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>74</v>
@@ -5240,12 +5102,12 @@
         <v>73</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5256,7 +5118,7 @@
         <v>74</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>73</v>
@@ -5268,20 +5130,16 @@
         <v>83</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>153</v>
+        <v>241</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>73</v>
       </c>
@@ -5329,13 +5187,13 @@
         <v>73</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>73</v>
@@ -5344,18 +5202,18 @@
         <v>94</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>73</v>
+        <v>244</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>224</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5378,13 +5236,13 @@
         <v>83</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>244</v>
+        <v>153</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5411,13 +5269,13 @@
         <v>73</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>73</v>
+        <v>248</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>73</v>
+        <v>249</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>73</v>
@@ -5435,7 +5293,7 @@
         <v>73</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>74</v>
@@ -5450,7 +5308,7 @@
         <v>94</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>73</v>
@@ -5461,7 +5319,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5484,13 +5342,13 @@
         <v>83</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5541,7 +5399,7 @@
         <v>73</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>74</v>
@@ -5553,10 +5411,10 @@
         <v>73</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>94</v>
+        <v>255</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>143</v>
+        <v>256</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>73</v>
@@ -5567,7 +5425,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5578,7 +5436,7 @@
         <v>74</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>73</v>
@@ -5587,16 +5445,16 @@
         <v>73</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>253</v>
+        <v>161</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>254</v>
+        <v>162</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5623,13 +5481,13 @@
         <v>73</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>255</v>
+        <v>73</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>256</v>
+        <v>73</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>73</v>
@@ -5647,28 +5505,28 @@
         <v>73</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>252</v>
+        <v>163</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>257</v>
+        <v>73</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>73</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41">
@@ -5677,7 +5535,7 @@
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -5693,18 +5551,20 @@
         <v>73</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>259</v>
+        <v>129</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>260</v>
+        <v>130</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>73</v>
@@ -5753,7 +5613,7 @@
         <v>73</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>258</v>
+        <v>169</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>74</v>
@@ -5765,53 +5625,57 @@
         <v>73</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>262</v>
+        <v>73</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>73</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>73</v>
+        <v>260</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>165</v>
+        <v>261</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>73</v>
       </c>
@@ -5859,19 +5723,19 @@
         <v>73</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>167</v>
+        <v>263</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>73</v>
@@ -5880,7 +5744,7 @@
         <v>73</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>143</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43">
@@ -5889,14 +5753,14 @@
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>73</v>
@@ -5905,20 +5769,18 @@
         <v>73</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>129</v>
+        <v>265</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>73</v>
@@ -5943,13 +5805,13 @@
         <v>73</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>73</v>
+        <v>267</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>73</v>
+        <v>268</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>73</v>
@@ -5967,69 +5829,65 @@
         <v>73</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>173</v>
+        <v>264</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>73</v>
+        <v>269</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>143</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>266</v>
+        <v>73</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>128</v>
+        <v>271</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>73</v>
       </c>
@@ -6077,2053 +5935,27 @@
         <v>73</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>73</v>
+        <v>274</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="F45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P45" s="2"/>
-      <c r="Q45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F46" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P46" s="2"/>
-      <c r="Q46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P47" s="2"/>
-      <c r="Q47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="K48" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P48" s="2"/>
-      <c r="Q48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F49" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="K49" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P49" s="2"/>
-      <c r="Q49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P50" s="2"/>
-      <c r="Q50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="F51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P51" s="2"/>
-      <c r="Q51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D52" s="2"/>
-      <c r="E52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P52" s="2"/>
-      <c r="Q52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D53" s="2"/>
-      <c r="E53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P53" s="2"/>
-      <c r="Q53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P54" s="2"/>
-      <c r="Q54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D55" s="2"/>
-      <c r="E55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P55" s="2"/>
-      <c r="Q55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="D56" s="2"/>
-      <c r="E56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P56" s="2"/>
-      <c r="Q56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="B57" s="2"/>
-      <c r="C57" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="D57" s="2"/>
-      <c r="E57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P57" s="2"/>
-      <c r="Q57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D58" s="2"/>
-      <c r="E58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P58" s="2"/>
-      <c r="Q58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="B59" s="2"/>
-      <c r="C59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D59" s="2"/>
-      <c r="E59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
-      <c r="O59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P59" s="2"/>
-      <c r="Q59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="B60" s="2"/>
-      <c r="C60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D60" s="2"/>
-      <c r="E60" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
-      <c r="O60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P60" s="2"/>
-      <c r="Q60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="B61" s="2"/>
-      <c r="C61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D61" s="2"/>
-      <c r="E61" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
-      <c r="O61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P61" s="2"/>
-      <c r="Q61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="B62" s="2"/>
-      <c r="C62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D62" s="2"/>
-      <c r="E62" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
-      <c r="O62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P62" s="2"/>
-      <c r="Q62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="B63" s="2"/>
-      <c r="C63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D63" s="2"/>
-      <c r="E63" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
-      <c r="O63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P63" s="2"/>
-      <c r="Q63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL63" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-12T19:50:48+00:00</t>
+    <t>2022-11-12T20:00:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="322">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://unicom-project.eu/fhir/StructureDefinition/PPLManufacturedItemDefinition</t>
+    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLManufacturedItemDefinition</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-12T20:00:33+00:00</t>
+    <t>2022-11-14T19:25:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>4.3.0</t>
+    <t>5.0.0-ballot</t>
   </si>
   <si>
     <t>Kind</t>
@@ -277,7 +277,7 @@
     <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
   </si>
   <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>Within the context of the FHIR RESTful interactions, the resource has an id except for cases like the create and conditional update. Otherwise, the use of the resouce id depends on the given use case.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -367,7 +367,7 @@
     <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
   </si>
   <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>Contained resources do not have a narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -390,17 +390,13 @@
     <t>Contained, inline Resources</t>
   </si>
   <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, nor can they have their own independent transaction scope. This is allowed to be a Parameters resource if and only if it is referenced by a resource that provides context/meaning.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags in their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dom-r4b:Containing new R4B resources within R4 resources may cause interoperability issues if instances are shared with R4 systems {($this is Citation or $this is Evidence or $this is EvidenceReport or $this is EvidenceVariable or $this is MedicinalProductDefinition or $this is PackagedProductDefinition or $this is AdministrableProductDefinition or $this is Ingredient or $this is ClinicalUseDefinition or $this is RegulatedAuthorization or $this is SubstanceDefinition or $this is SubscriptionStatus or $this is SubscriptionTopic) implies (%resource is Citation or %resource is Evidence or %resource is EvidenceReport or %resource is EvidenceVariable or %resource is MedicinalProductDefinition or %resource is PackagedProductDefinition or %resource is AdministrableProductDefinition or %resource is Ingredient or %resource is ClinicalUseDefinition or %resource is RegulatedAuthorization or %resource is SubstanceDefinition or %resource is SubscriptionStatus or %resource is SubscriptionTopic)}
-</t>
   </si>
   <si>
     <t>N/A</t>
@@ -443,7 +439,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/2021Mar/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://build.fhir.org/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -465,6 +461,9 @@
     <t>n/a</t>
   </si>
   <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
     <t>ManufacturedItemDefinition.status</t>
   </si>
   <si>
@@ -483,7 +482,20 @@
     <t>The lifecycle status of an artifact.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/publication-status|4.3.0</t>
+    <t>http://hl7.org/fhir/ValueSet/publication-status|5.0.0-ballot</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>A descriptive name applied to this item</t>
+  </si>
+  <si>
+    <t>A descriptive name applied to this item.</t>
   </si>
   <si>
     <t>ManufacturedItemDefinition.manufacturedDoseForm</t>
@@ -582,7 +594,7 @@
     <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
   </si>
   <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should be an absolute reference to some definition that establishes the system clearly and unambiguously.</t>
   </si>
   <si>
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
@@ -598,10 +610,6 @@
   </si>
   <si>
     <t>ManufacturedItemDefinition.manufacturedDoseForm.coding.version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Version of the system - if relevant</t>
@@ -762,13 +770,26 @@
 </t>
   </si>
   <si>
-    <t>Manufacturer of the item (Note that this should be named "manufacturer" but it currently causes technical issues)</t>
-  </si>
-  <si>
-    <t>Manufacturer of the item (Note that this should be named "manufacturer" but it currently causes technical issues).</t>
+    <t>Manufacturer of the item, one of several possible</t>
+  </si>
+  <si>
+    <t>Manufacturer of the item, one of several possible.</t>
   </si>
   <si>
     <t>Manufactured Item.Manufacturer / Establishment (Organisation)</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.marketingStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MarketingStatus
+</t>
+  </si>
+  <si>
+    <t>Allows specifying that an item is on the market for sale, or that it is not available, and the dates and locations associated</t>
+  </si>
+  <si>
+    <t>Allows specifying that an item is on the market for sale, or that it is not available, and the dates and locations associated.</t>
   </si>
   <si>
     <t>ManufacturedItemDefinition.ingredient</t>
@@ -802,10 +823,6 @@
     <t>General characteristics of this item.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
-</t>
-  </si>
-  <si>
     <t>Manufactured Item.Physical Characteristics</t>
   </si>
   <si>
@@ -864,6 +881,131 @@
   </si>
   <si>
     <t>Physical Characteristics, attribute's value</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.component</t>
+  </si>
+  <si>
+    <t>Physical parts of the manufactured item, that it is intrisically made from. This is distinct from the ingredients that are part of its chemical makeup</t>
+  </si>
+  <si>
+    <t>Physical parts of the manufactured item, that it is intrisically made from. This is distinct from the ingredients that are part of its chemical makeup.</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.component.id</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.component.extension</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.component.modifierExtension</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.component.type</t>
+  </si>
+  <si>
+    <t>Defining type of the component e.g. shell, layer, ink</t>
+  </si>
+  <si>
+    <t>Defining type of the component e.g. shell, layer, ink.</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.component.function</t>
+  </si>
+  <si>
+    <t>The function of this component within the item e.g. delivers active ingredient, masks taste</t>
+  </si>
+  <si>
+    <t>The function of this component within the item e.g. delivers active ingredient, masks taste.</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.component.amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity
+</t>
+  </si>
+  <si>
+    <t>The measurable amount of substance in this component, expressable in different ways (e.g. by mass or volume)</t>
+  </si>
+  <si>
+    <t>The measurable amount of substance in this component, expressable in different ways (e.g. by mass or volume).</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.component.constituent</t>
+  </si>
+  <si>
+    <t>A reference to an constituent of the manufactured item as a whole, linked here so that its component location within the item can be indicated. This not where the item's ingredient are primarily stated (for which see Ingredient.for or ManufacturedItemDefinition.ingredient)</t>
+  </si>
+  <si>
+    <t>A reference to an constituent of the manufactured item as a whole, linked here so that its component location within the item can be indicated. This not where the item's ingredient are primarily stated (for which see Ingredient.for or ManufacturedItemDefinition.ingredient).</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.component.constituent.id</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.component.constituent.extension</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.component.constituent.modifierExtension</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.component.constituent.amount</t>
+  </si>
+  <si>
+    <t>The measurable amount of this constituent in this component, expressable in different ways (e.g. by mass or volume)</t>
+  </si>
+  <si>
+    <t>The measurable amount of this constituent in this component, expressable in different ways (e.g. by mass or volume).</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.component.constituent.location</t>
+  </si>
+  <si>
+    <t>The type of location of the constituent within this component e.g. intragranular, blend</t>
+  </si>
+  <si>
+    <t>The type of location of the constituent within this component e.g. intragranular, blend.</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.component.constituent.function</t>
+  </si>
+  <si>
+    <t>The function of this constituent within the component e.g. binder</t>
+  </si>
+  <si>
+    <t>The function of this constituent within the component e.g. binder.</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.component.constituent.locationForIngredient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableReference(Ingredient)
+</t>
+  </si>
+  <si>
+    <t>An ingredient that this component is the location of in this manufactured item. The component is physically made of this ingredient (and possibly others), rather than just being a container for it</t>
+  </si>
+  <si>
+    <t>An ingredient that this component is the location for in this manufactured item. The component is physically made of this ingredient (and possibly others), rather than just being a container for it.</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.component.property</t>
+  </si>
+  <si>
+    <t>General characteristics of this component</t>
+  </si>
+  <si>
+    <t>General characteristics of this component.</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.component.component</t>
+  </si>
+  <si>
+    <t>A component that this component contains or is made from</t>
+  </si>
+  <si>
+    <t>A component that this component contains or is made from.</t>
   </si>
 </sst>
 </file>
@@ -1160,7 +1302,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL44"/>
+  <dimension ref="A1:AL63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1169,7 +1311,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="68.91796875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="68.9453125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1179,7 +1321,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="132.91015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="252.22265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1193,13 +1335,13 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="104.4296875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.50390625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.76953125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="49.6796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="68.9453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
@@ -2065,25 +2207,25 @@
         <v>73</v>
       </c>
       <c r="AI8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL8" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL8" t="s" s="2">
-        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2102,16 +2244,16 @@
         <v>73</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2161,7 +2303,7 @@
         <v>73</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>74</v>
@@ -2173,7 +2315,7 @@
         <v>73</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>73</v>
@@ -2182,16 +2324,16 @@
         <v>73</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2207,22 +2349,22 @@
         <v>83</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>73</v>
@@ -2271,7 +2413,7 @@
         <v>73</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>74</v>
@@ -2283,7 +2425,7 @@
         <v>73</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>73</v>
@@ -2292,12 +2434,12 @@
         <v>73</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2320,13 +2462,13 @@
         <v>83</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2377,7 +2519,7 @@
         <v>73</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>74</v>
@@ -2392,10 +2534,10 @@
         <v>94</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>73</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>73</v>
@@ -2500,7 +2642,7 @@
         <v>94</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>73</v>
@@ -2519,7 +2661,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>82</v>
@@ -2567,13 +2709,13 @@
         <v>73</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>156</v>
+        <v>73</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>73</v>
@@ -2594,7 +2736,7 @@
         <v>152</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>82</v>
@@ -2606,10 +2748,10 @@
         <v>94</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>73</v>
@@ -2617,7 +2759,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2625,7 +2767,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>82</v>
@@ -2637,16 +2779,16 @@
         <v>73</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>84</v>
+        <v>157</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2673,13 +2815,13 @@
         <v>73</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>73</v>
+        <v>162</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>73</v>
@@ -2697,10 +2839,10 @@
         <v>73</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>82</v>
@@ -2709,16 +2851,16 @@
         <v>73</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>73</v>
+        <v>163</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>144</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15">
@@ -2727,14 +2869,14 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>73</v>
@@ -2746,17 +2888,15 @@
         <v>73</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>73</v>
@@ -2793,31 +2933,31 @@
         <v>73</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>166</v>
+        <v>73</v>
       </c>
       <c r="AB15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE15" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AC15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>169</v>
-      </c>
       <c r="AF15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>73</v>
@@ -2826,16 +2966,16 @@
         <v>73</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -2851,23 +2991,21 @@
         <v>73</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>171</v>
+        <v>128</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>172</v>
+        <v>129</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>73</v>
       </c>
@@ -2903,19 +3041,19 @@
         <v>73</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>73</v>
+        <v>170</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>73</v>
+        <v>171</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>73</v>
+        <v>172</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>74</v>
@@ -2927,7 +3065,7 @@
         <v>73</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>73</v>
@@ -2936,12 +3074,12 @@
         <v>73</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>177</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2952,7 +3090,7 @@
         <v>74</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>73</v>
@@ -2961,19 +3099,23 @@
         <v>73</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>84</v>
+        <v>175</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="O17" t="s" s="2">
         <v>73</v>
       </c>
@@ -3021,19 +3163,19 @@
         <v>73</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>73</v>
@@ -3042,23 +3184,23 @@
         <v>73</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>144</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>73</v>
@@ -3070,17 +3212,15 @@
         <v>73</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>73</v>
@@ -3117,31 +3257,31 @@
         <v>73</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>166</v>
+        <v>73</v>
       </c>
       <c r="AB18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE18" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AC18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>169</v>
-      </c>
       <c r="AF18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>73</v>
@@ -3150,23 +3290,23 @@
         <v>73</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>73</v>
@@ -3175,23 +3315,21 @@
         <v>73</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>181</v>
+        <v>129</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>73</v>
       </c>
@@ -3200,7 +3338,7 @@
         <v>73</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>185</v>
+        <v>73</v>
       </c>
       <c r="S19" t="s" s="2">
         <v>73</v>
@@ -3227,31 +3365,31 @@
         <v>73</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>73</v>
+        <v>170</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>73</v>
+        <v>171</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>73</v>
+        <v>172</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>73</v>
@@ -3260,12 +3398,12 @@
         <v>73</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>187</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3288,18 +3426,20 @@
         <v>83</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>189</v>
+        <v>96</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>73</v>
       </c>
@@ -3308,7 +3448,7 @@
         <v>73</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>73</v>
+        <v>189</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>73</v>
@@ -3347,7 +3487,7 @@
         <v>73</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>74</v>
@@ -3368,12 +3508,12 @@
         <v>73</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3396,18 +3536,18 @@
         <v>83</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>102</v>
+        <v>153</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>73</v>
       </c>
@@ -3455,7 +3595,7 @@
         <v>73</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>74</v>
@@ -3476,12 +3616,12 @@
         <v>73</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3504,17 +3644,17 @@
         <v>83</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>73</v>
@@ -3563,7 +3703,7 @@
         <v>73</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>74</v>
@@ -3584,12 +3724,12 @@
         <v>73</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3612,19 +3752,17 @@
         <v>83</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>208</v>
+        <v>153</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>73</v>
@@ -3673,7 +3811,7 @@
         <v>73</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>74</v>
@@ -3694,12 +3832,12 @@
         <v>73</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3722,19 +3860,19 @@
         <v>83</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>73</v>
@@ -3783,7 +3921,7 @@
         <v>73</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>74</v>
@@ -3804,12 +3942,12 @@
         <v>73</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3817,7 +3955,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>82</v>
@@ -3835,13 +3973,17 @@
         <v>153</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>73</v>
       </c>
@@ -3865,13 +4007,13 @@
         <v>73</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>156</v>
+        <v>73</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>225</v>
+        <v>73</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>226</v>
+        <v>73</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>73</v>
@@ -3889,7 +4031,7 @@
         <v>73</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>74</v>
@@ -3904,18 +4046,18 @@
         <v>94</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>227</v>
+        <v>73</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>73</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3923,7 +4065,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>82</v>
@@ -3935,16 +4077,16 @@
         <v>73</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>84</v>
+        <v>157</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>161</v>
+        <v>226</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>162</v>
+        <v>227</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3971,13 +4113,13 @@
         <v>73</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>73</v>
+        <v>228</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>73</v>
+        <v>229</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>73</v>
@@ -3995,7 +4137,7 @@
         <v>73</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>163</v>
+        <v>225</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>74</v>
@@ -4007,32 +4149,32 @@
         <v>73</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>73</v>
+        <v>230</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>144</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>73</v>
@@ -4044,17 +4186,15 @@
         <v>73</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>73</v>
@@ -4091,31 +4231,31 @@
         <v>73</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>166</v>
+        <v>73</v>
       </c>
       <c r="AB27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE27" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AC27" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>169</v>
-      </c>
       <c r="AF27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>73</v>
@@ -4124,16 +4264,16 @@
         <v>73</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4149,23 +4289,21 @@
         <v>73</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>171</v>
+        <v>128</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>172</v>
+        <v>129</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>73</v>
       </c>
@@ -4201,19 +4339,19 @@
         <v>73</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>73</v>
+        <v>170</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>73</v>
+        <v>171</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>73</v>
+        <v>172</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>74</v>
@@ -4225,7 +4363,7 @@
         <v>73</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>73</v>
@@ -4234,12 +4372,12 @@
         <v>73</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>177</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4250,7 +4388,7 @@
         <v>74</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>73</v>
@@ -4259,19 +4397,23 @@
         <v>73</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>84</v>
+        <v>175</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>73</v>
       </c>
@@ -4319,19 +4461,19 @@
         <v>73</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>73</v>
@@ -4340,23 +4482,23 @@
         <v>73</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>144</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>73</v>
@@ -4368,17 +4510,15 @@
         <v>73</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>73</v>
@@ -4415,31 +4555,31 @@
         <v>73</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>166</v>
+        <v>73</v>
       </c>
       <c r="AB30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE30" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AC30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>169</v>
-      </c>
       <c r="AF30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>73</v>
@@ -4448,23 +4588,23 @@
         <v>73</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>73</v>
@@ -4473,23 +4613,21 @@
         <v>73</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>181</v>
+        <v>129</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>73</v>
       </c>
@@ -4498,7 +4636,7 @@
         <v>73</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>234</v>
+        <v>73</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>73</v>
@@ -4525,31 +4663,31 @@
         <v>73</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>73</v>
+        <v>170</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>73</v>
+        <v>171</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>73</v>
+        <v>172</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>73</v>
@@ -4558,12 +4696,12 @@
         <v>73</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>187</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4586,18 +4724,20 @@
         <v>83</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>189</v>
+        <v>96</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>73</v>
       </c>
@@ -4606,7 +4746,7 @@
         <v>73</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>73</v>
+        <v>237</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>73</v>
@@ -4645,7 +4785,7 @@
         <v>73</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>74</v>
@@ -4666,12 +4806,12 @@
         <v>73</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4694,18 +4834,18 @@
         <v>83</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>102</v>
+        <v>153</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="M33" s="2"/>
-      <c r="N33" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>73</v>
       </c>
@@ -4753,7 +4893,7 @@
         <v>73</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>74</v>
@@ -4774,12 +4914,12 @@
         <v>73</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4802,17 +4942,17 @@
         <v>83</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>73</v>
@@ -4861,7 +5001,7 @@
         <v>73</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>74</v>
@@ -4882,12 +5022,12 @@
         <v>73</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4910,19 +5050,17 @@
         <v>83</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>208</v>
+        <v>153</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>73</v>
@@ -4971,7 +5109,7 @@
         <v>73</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>74</v>
@@ -4992,12 +5130,12 @@
         <v>73</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5020,19 +5158,19 @@
         <v>83</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>73</v>
@@ -5081,7 +5219,7 @@
         <v>73</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>74</v>
@@ -5102,12 +5240,12 @@
         <v>73</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5118,7 +5256,7 @@
         <v>74</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>73</v>
@@ -5130,16 +5268,20 @@
         <v>83</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>241</v>
+        <v>153</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>73</v>
       </c>
@@ -5187,13 +5329,13 @@
         <v>73</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>73</v>
@@ -5202,18 +5344,18 @@
         <v>94</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>244</v>
+        <v>73</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>73</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5236,13 +5378,13 @@
         <v>83</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>153</v>
+        <v>244</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5269,13 +5411,13 @@
         <v>73</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>156</v>
+        <v>73</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>248</v>
+        <v>73</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>249</v>
+        <v>73</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>73</v>
@@ -5293,7 +5435,7 @@
         <v>73</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>74</v>
@@ -5308,7 +5450,7 @@
         <v>94</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>73</v>
@@ -5319,7 +5461,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5342,13 +5484,13 @@
         <v>83</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5399,7 +5541,7 @@
         <v>73</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>74</v>
@@ -5411,10 +5553,10 @@
         <v>73</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>255</v>
+        <v>94</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>256</v>
+        <v>143</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>73</v>
@@ -5425,7 +5567,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5436,7 +5578,7 @@
         <v>74</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>73</v>
@@ -5445,16 +5587,16 @@
         <v>73</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>161</v>
+        <v>253</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>162</v>
+        <v>254</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5481,13 +5623,13 @@
         <v>73</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>73</v>
+        <v>255</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>73</v>
+        <v>256</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>73</v>
@@ -5505,28 +5647,28 @@
         <v>73</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>163</v>
+        <v>252</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>73</v>
+        <v>257</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>144</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41">
@@ -5535,7 +5677,7 @@
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -5551,20 +5693,18 @@
         <v>73</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>129</v>
+        <v>259</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>73</v>
@@ -5613,7 +5753,7 @@
         <v>73</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>169</v>
+        <v>258</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>74</v>
@@ -5625,57 +5765,53 @@
         <v>73</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>73</v>
+        <v>262</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>144</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>260</v>
+        <v>73</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>261</v>
+        <v>165</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>73</v>
       </c>
@@ -5723,19 +5859,19 @@
         <v>73</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>263</v>
+        <v>167</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>73</v>
@@ -5744,7 +5880,7 @@
         <v>73</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>126</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43">
@@ -5753,14 +5889,14 @@
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>73</v>
@@ -5769,18 +5905,20 @@
         <v>73</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>265</v>
+        <v>129</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>73</v>
@@ -5805,13 +5943,13 @@
         <v>73</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>156</v>
+        <v>73</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>267</v>
+        <v>73</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>268</v>
+        <v>73</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>73</v>
@@ -5829,65 +5967,69 @@
         <v>73</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>264</v>
+        <v>173</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>269</v>
+        <v>73</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>73</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>73</v>
+        <v>266</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>271</v>
+        <v>128</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>73</v>
       </c>
@@ -5935,27 +6077,2053 @@
         <v>73</v>
       </c>
       <c r="AE44" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="AF44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG44" t="s" s="2">
+      <c r="B45" s="2"/>
+      <c r="C45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="AH44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI44" t="s" s="2">
+      <c r="F45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI45" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AJ44" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AJ45" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL63" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="275">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLManufacturedItemDefinition</t>
+    <t>http://unicom-project.eu/fhir/StructureDefinition/PPLManufacturedItemDefinition</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-14T19:25:53+00:00</t>
+    <t>2022-11-16T21:11:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>4.3.0</t>
   </si>
   <si>
     <t>Kind</t>
@@ -277,7 +277,7 @@
     <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
   </si>
   <si>
-    <t>Within the context of the FHIR RESTful interactions, the resource has an id except for cases like the create and conditional update. Otherwise, the use of the resouce id depends on the given use case.</t>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -367,7 +367,7 @@
     <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
   </si>
   <si>
-    <t>Contained resources do not have a narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -390,13 +390,17 @@
     <t>Contained, inline Resources</t>
   </si>
   <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, nor can they have their own independent transaction scope. This is allowed to be a Parameters resource if and only if it is referenced by a resource that provides context/meaning.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags in their meta elements, but SHALL NOT have security labels.</t>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dom-r4b:Containing new R4B resources within R4 resources may cause interoperability issues if instances are shared with R4 systems {($this is Citation or $this is Evidence or $this is EvidenceReport or $this is EvidenceVariable or $this is MedicinalProductDefinition or $this is PackagedProductDefinition or $this is AdministrableProductDefinition or $this is Ingredient or $this is ClinicalUseDefinition or $this is RegulatedAuthorization or $this is SubstanceDefinition or $this is SubscriptionStatus or $this is SubscriptionTopic) implies (%resource is Citation or %resource is Evidence or %resource is EvidenceReport or %resource is EvidenceVariable or %resource is MedicinalProductDefinition or %resource is PackagedProductDefinition or %resource is AdministrableProductDefinition or %resource is Ingredient or %resource is ClinicalUseDefinition or %resource is RegulatedAuthorization or %resource is SubstanceDefinition or %resource is SubscriptionStatus or %resource is SubscriptionTopic)}
+</t>
   </si>
   <si>
     <t>N/A</t>
@@ -439,7 +443,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://build.fhir.org/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/2021Mar/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -461,9 +465,6 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
     <t>ManufacturedItemDefinition.status</t>
   </si>
   <si>
@@ -482,136 +483,127 @@
     <t>The lifecycle status of an artifact.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/publication-status|5.0.0-ballot</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.name</t>
+    <t>http://hl7.org/fhir/ValueSet/publication-status|4.3.0</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.manufacturedDoseForm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Dose form of the manufactured item (before preparing for administration)</t>
+  </si>
+  <si>
+    <t>EMA IG 4.11.3</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Dose form for a medication, in the form suitable for administering to the patient, after mixing, where necessary.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/manufactured-dose-form</t>
+  </si>
+  <si>
+    <t>Manufactured Item.Manufactured Dose Form</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.manufacturedDoseForm.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.manufacturedDoseForm.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.manufacturedDoseForm.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.manufacturedDoseForm.coding.id</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.manufacturedDoseForm.coding.extension</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.manufacturedDoseForm.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://spor.ema.europa.eu/v1/lists/200000000004</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.manufacturedDoseForm.coding.version</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>A descriptive name applied to this item</t>
-  </si>
-  <si>
-    <t>A descriptive name applied to this item.</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.manufacturedDoseForm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Dose form of the manufactured item (before preparing for administration)</t>
-  </si>
-  <si>
-    <t>EMA IG 4.11.3</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Dose form for a medication, in the form suitable for administering to the patient, after mixing, where necessary.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/manufactured-dose-form</t>
-  </si>
-  <si>
-    <t>Manufactured Item.Manufactured Dose Form</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.manufacturedDoseForm.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.manufacturedDoseForm.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.manufacturedDoseForm.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.manufacturedDoseForm.coding.id</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.manufacturedDoseForm.coding.extension</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.manufacturedDoseForm.coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should be an absolute reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>http://spor.ema.europa.eu/v1/lists/200000000004</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.manufacturedDoseForm.coding.version</t>
-  </si>
-  <si>
     <t>Version of the system - if relevant</t>
   </si>
   <si>
@@ -770,26 +762,13 @@
 </t>
   </si>
   <si>
-    <t>Manufacturer of the item, one of several possible</t>
-  </si>
-  <si>
-    <t>Manufacturer of the item, one of several possible.</t>
+    <t>Manufacturer of the item (Note that this should be named "manufacturer" but it currently causes technical issues)</t>
+  </si>
+  <si>
+    <t>Manufacturer of the item (Note that this should be named "manufacturer" but it currently causes technical issues).</t>
   </si>
   <si>
     <t>Manufactured Item.Manufacturer / Establishment (Organisation)</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.marketingStatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MarketingStatus
-</t>
-  </si>
-  <si>
-    <t>Allows specifying that an item is on the market for sale, or that it is not available, and the dates and locations associated</t>
-  </si>
-  <si>
-    <t>Allows specifying that an item is on the market for sale, or that it is not available, and the dates and locations associated.</t>
   </si>
   <si>
     <t>ManufacturedItemDefinition.ingredient</t>
@@ -823,6 +802,10 @@
     <t>General characteristics of this item.</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
+</t>
+  </si>
+  <si>
     <t>Manufactured Item.Physical Characteristics</t>
   </si>
   <si>
@@ -881,131 +864,6 @@
   </si>
   <si>
     <t>Physical Characteristics, attribute's value</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.component</t>
-  </si>
-  <si>
-    <t>Physical parts of the manufactured item, that it is intrisically made from. This is distinct from the ingredients that are part of its chemical makeup</t>
-  </si>
-  <si>
-    <t>Physical parts of the manufactured item, that it is intrisically made from. This is distinct from the ingredients that are part of its chemical makeup.</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.component.id</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.component.extension</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.component.modifierExtension</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.component.type</t>
-  </si>
-  <si>
-    <t>Defining type of the component e.g. shell, layer, ink</t>
-  </si>
-  <si>
-    <t>Defining type of the component e.g. shell, layer, ink.</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.component.function</t>
-  </si>
-  <si>
-    <t>The function of this component within the item e.g. delivers active ingredient, masks taste</t>
-  </si>
-  <si>
-    <t>The function of this component within the item e.g. delivers active ingredient, masks taste.</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.component.amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity
-</t>
-  </si>
-  <si>
-    <t>The measurable amount of substance in this component, expressable in different ways (e.g. by mass or volume)</t>
-  </si>
-  <si>
-    <t>The measurable amount of substance in this component, expressable in different ways (e.g. by mass or volume).</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.component.constituent</t>
-  </si>
-  <si>
-    <t>A reference to an constituent of the manufactured item as a whole, linked here so that its component location within the item can be indicated. This not where the item's ingredient are primarily stated (for which see Ingredient.for or ManufacturedItemDefinition.ingredient)</t>
-  </si>
-  <si>
-    <t>A reference to an constituent of the manufactured item as a whole, linked here so that its component location within the item can be indicated. This not where the item's ingredient are primarily stated (for which see Ingredient.for or ManufacturedItemDefinition.ingredient).</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.component.constituent.id</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.component.constituent.extension</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.component.constituent.modifierExtension</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.component.constituent.amount</t>
-  </si>
-  <si>
-    <t>The measurable amount of this constituent in this component, expressable in different ways (e.g. by mass or volume)</t>
-  </si>
-  <si>
-    <t>The measurable amount of this constituent in this component, expressable in different ways (e.g. by mass or volume).</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.component.constituent.location</t>
-  </si>
-  <si>
-    <t>The type of location of the constituent within this component e.g. intragranular, blend</t>
-  </si>
-  <si>
-    <t>The type of location of the constituent within this component e.g. intragranular, blend.</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.component.constituent.function</t>
-  </si>
-  <si>
-    <t>The function of this constituent within the component e.g. binder</t>
-  </si>
-  <si>
-    <t>The function of this constituent within the component e.g. binder.</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.component.constituent.locationForIngredient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableReference(Ingredient)
-</t>
-  </si>
-  <si>
-    <t>An ingredient that this component is the location of in this manufactured item. The component is physically made of this ingredient (and possibly others), rather than just being a container for it</t>
-  </si>
-  <si>
-    <t>An ingredient that this component is the location for in this manufactured item. The component is physically made of this ingredient (and possibly others), rather than just being a container for it.</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.component.property</t>
-  </si>
-  <si>
-    <t>General characteristics of this component</t>
-  </si>
-  <si>
-    <t>General characteristics of this component.</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.component.component</t>
-  </si>
-  <si>
-    <t>A component that this component contains or is made from</t>
-  </si>
-  <si>
-    <t>A component that this component contains or is made from.</t>
   </si>
 </sst>
 </file>
@@ -1302,7 +1160,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL63"/>
+  <dimension ref="A1:AL44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1311,7 +1169,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="68.9453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="68.91796875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1321,7 +1179,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="252.22265625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="132.91015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1335,13 +1193,13 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="104.4296875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.76953125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="52.50390625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="68.9453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="49.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
@@ -2207,7 +2065,7 @@
         <v>73</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>73</v>
@@ -2216,16 +2074,16 @@
         <v>73</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2244,16 +2102,16 @@
         <v>73</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2303,7 +2161,7 @@
         <v>73</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>74</v>
@@ -2315,7 +2173,7 @@
         <v>73</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>73</v>
@@ -2324,16 +2182,16 @@
         <v>73</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2349,22 +2207,22 @@
         <v>83</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>73</v>
@@ -2413,7 +2271,7 @@
         <v>73</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>74</v>
@@ -2425,7 +2283,7 @@
         <v>73</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>73</v>
@@ -2434,12 +2292,12 @@
         <v>73</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2462,13 +2320,13 @@
         <v>83</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2519,7 +2377,7 @@
         <v>73</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>74</v>
@@ -2534,10 +2392,10 @@
         <v>94</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>73</v>
@@ -2642,7 +2500,7 @@
         <v>94</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>73</v>
@@ -2661,7 +2519,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>82</v>
@@ -2709,13 +2567,13 @@
         <v>73</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>73</v>
@@ -2736,7 +2594,7 @@
         <v>152</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>82</v>
@@ -2748,10 +2606,10 @@
         <v>94</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>73</v>
@@ -2759,7 +2617,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2767,7 +2625,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>82</v>
@@ -2779,16 +2637,16 @@
         <v>73</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2815,13 +2673,13 @@
         <v>73</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>161</v>
+        <v>73</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>162</v>
+        <v>73</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>73</v>
@@ -2839,10 +2697,10 @@
         <v>73</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>82</v>
@@ -2851,16 +2709,16 @@
         <v>73</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>163</v>
+        <v>73</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>73</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15">
@@ -2869,14 +2727,14 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>73</v>
@@ -2888,15 +2746,17 @@
         <v>73</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L15" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M15" s="2"/>
+      <c r="M15" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>73</v>
@@ -2933,31 +2793,31 @@
         <v>73</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>73</v>
+        <v>166</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>73</v>
+        <v>167</v>
       </c>
       <c r="AC15" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>73</v>
+        <v>168</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>73</v>
@@ -2966,16 +2826,16 @@
         <v>73</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -2991,21 +2851,23 @@
         <v>73</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="O16" t="s" s="2">
         <v>73</v>
       </c>
@@ -3041,19 +2903,19 @@
         <v>73</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>170</v>
+        <v>73</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>171</v>
+        <v>73</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>172</v>
+        <v>73</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>74</v>
@@ -3065,7 +2927,7 @@
         <v>73</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>73</v>
@@ -3074,12 +2936,12 @@
         <v>73</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>143</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3090,7 +2952,7 @@
         <v>74</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>73</v>
@@ -3099,23 +2961,19 @@
         <v>73</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>175</v>
+        <v>84</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>73</v>
       </c>
@@ -3163,19 +3021,19 @@
         <v>73</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>73</v>
@@ -3184,23 +3042,23 @@
         <v>73</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>181</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>73</v>
@@ -3212,15 +3070,17 @@
         <v>73</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L18" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M18" s="2"/>
+      <c r="M18" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>73</v>
@@ -3257,31 +3117,31 @@
         <v>73</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>73</v>
+        <v>166</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>73</v>
+        <v>167</v>
       </c>
       <c r="AC18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>73</v>
+        <v>168</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>73</v>
@@ -3290,23 +3150,23 @@
         <v>73</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>73</v>
@@ -3315,21 +3175,23 @@
         <v>73</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>129</v>
+        <v>181</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>73</v>
       </c>
@@ -3338,7 +3200,7 @@
         <v>73</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>73</v>
+        <v>185</v>
       </c>
       <c r="S19" t="s" s="2">
         <v>73</v>
@@ -3365,31 +3227,31 @@
         <v>73</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>170</v>
+        <v>73</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>171</v>
+        <v>73</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>172</v>
+        <v>73</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>73</v>
@@ -3398,12 +3260,12 @@
         <v>73</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>143</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3426,20 +3288,18 @@
         <v>83</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>96</v>
+        <v>189</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>188</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>73</v>
       </c>
@@ -3448,7 +3308,7 @@
         <v>73</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>189</v>
+        <v>73</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>73</v>
@@ -3487,7 +3347,7 @@
         <v>73</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>74</v>
@@ -3508,12 +3368,12 @@
         <v>73</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3536,18 +3396,18 @@
         <v>83</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>153</v>
+        <v>102</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>73</v>
       </c>
@@ -3595,7 +3455,7 @@
         <v>73</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>74</v>
@@ -3616,12 +3476,12 @@
         <v>73</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3644,17 +3504,17 @@
         <v>83</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>102</v>
+        <v>189</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>73</v>
@@ -3703,7 +3563,7 @@
         <v>73</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>74</v>
@@ -3724,12 +3584,12 @@
         <v>73</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3752,17 +3612,19 @@
         <v>83</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>153</v>
+        <v>208</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="N23" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>73</v>
@@ -3811,7 +3673,7 @@
         <v>73</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>74</v>
@@ -3832,12 +3694,12 @@
         <v>73</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3860,19 +3722,19 @@
         <v>83</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>73</v>
@@ -3921,7 +3783,7 @@
         <v>73</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>74</v>
@@ -3942,12 +3804,12 @@
         <v>73</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3955,7 +3817,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>82</v>
@@ -3973,17 +3835,13 @@
         <v>153</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>73</v>
       </c>
@@ -4007,13 +3865,13 @@
         <v>73</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>73</v>
+        <v>225</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>73</v>
+        <v>226</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>73</v>
@@ -4031,7 +3889,7 @@
         <v>73</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>74</v>
@@ -4046,18 +3904,18 @@
         <v>94</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>73</v>
+        <v>227</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>224</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4065,7 +3923,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>82</v>
@@ -4077,16 +3935,16 @@
         <v>73</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>226</v>
+        <v>161</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>227</v>
+        <v>162</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4113,13 +3971,13 @@
         <v>73</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>228</v>
+        <v>73</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>229</v>
+        <v>73</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>73</v>
@@ -4137,7 +3995,7 @@
         <v>73</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>225</v>
+        <v>163</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>74</v>
@@ -4149,32 +4007,32 @@
         <v>73</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>230</v>
+        <v>73</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>73</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>73</v>
@@ -4186,15 +4044,17 @@
         <v>73</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L27" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M27" s="2"/>
+      <c r="M27" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>73</v>
@@ -4231,31 +4091,31 @@
         <v>73</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>73</v>
+        <v>166</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>73</v>
+        <v>167</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>73</v>
+        <v>168</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>73</v>
@@ -4264,16 +4124,16 @@
         <v>73</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4289,21 +4149,23 @@
         <v>73</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>73</v>
       </c>
@@ -4339,19 +4201,19 @@
         <v>73</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>170</v>
+        <v>73</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>171</v>
+        <v>73</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>172</v>
+        <v>73</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>74</v>
@@ -4363,7 +4225,7 @@
         <v>73</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>73</v>
@@ -4372,12 +4234,12 @@
         <v>73</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>143</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4388,7 +4250,7 @@
         <v>74</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>73</v>
@@ -4397,23 +4259,19 @@
         <v>73</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>175</v>
+        <v>84</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>73</v>
       </c>
@@ -4461,19 +4319,19 @@
         <v>73</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>73</v>
@@ -4482,23 +4340,23 @@
         <v>73</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>181</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>73</v>
@@ -4510,15 +4368,17 @@
         <v>73</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L30" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M30" s="2"/>
+      <c r="M30" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>73</v>
@@ -4555,31 +4415,31 @@
         <v>73</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>73</v>
+        <v>166</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>73</v>
+        <v>167</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>73</v>
+        <v>168</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>73</v>
@@ -4588,23 +4448,23 @@
         <v>73</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>73</v>
@@ -4613,21 +4473,23 @@
         <v>73</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>129</v>
+        <v>181</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>73</v>
       </c>
@@ -4636,7 +4498,7 @@
         <v>73</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>73</v>
+        <v>234</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>73</v>
@@ -4663,31 +4525,31 @@
         <v>73</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>170</v>
+        <v>73</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>171</v>
+        <v>73</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>172</v>
+        <v>73</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>73</v>
@@ -4696,12 +4558,12 @@
         <v>73</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>143</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4724,20 +4586,18 @@
         <v>83</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>96</v>
+        <v>189</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>188</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>73</v>
       </c>
@@ -4746,7 +4606,7 @@
         <v>73</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>237</v>
+        <v>73</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>73</v>
@@ -4785,7 +4645,7 @@
         <v>73</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>74</v>
@@ -4806,12 +4666,12 @@
         <v>73</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4834,18 +4694,18 @@
         <v>83</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>153</v>
+        <v>102</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>73</v>
       </c>
@@ -4893,7 +4753,7 @@
         <v>73</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>74</v>
@@ -4914,12 +4774,12 @@
         <v>73</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4942,17 +4802,17 @@
         <v>83</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>102</v>
+        <v>189</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>73</v>
@@ -5001,7 +4861,7 @@
         <v>73</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>74</v>
@@ -5022,12 +4882,12 @@
         <v>73</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5050,17 +4910,19 @@
         <v>83</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>153</v>
+        <v>208</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="N35" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>73</v>
@@ -5109,7 +4971,7 @@
         <v>73</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>74</v>
@@ -5130,12 +4992,12 @@
         <v>73</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5158,19 +5020,19 @@
         <v>83</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>73</v>
@@ -5219,7 +5081,7 @@
         <v>73</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>74</v>
@@ -5240,12 +5102,12 @@
         <v>73</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5256,7 +5118,7 @@
         <v>74</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>73</v>
@@ -5268,20 +5130,16 @@
         <v>83</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>153</v>
+        <v>241</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>73</v>
       </c>
@@ -5329,13 +5187,13 @@
         <v>73</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>73</v>
@@ -5344,18 +5202,18 @@
         <v>94</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>73</v>
+        <v>244</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>224</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5378,13 +5236,13 @@
         <v>83</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>244</v>
+        <v>153</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5411,13 +5269,13 @@
         <v>73</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>73</v>
+        <v>248</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>73</v>
+        <v>249</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>73</v>
@@ -5435,7 +5293,7 @@
         <v>73</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>74</v>
@@ -5450,7 +5308,7 @@
         <v>94</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>73</v>
@@ -5461,7 +5319,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5484,13 +5342,13 @@
         <v>83</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5541,7 +5399,7 @@
         <v>73</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>74</v>
@@ -5553,10 +5411,10 @@
         <v>73</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>94</v>
+        <v>255</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>143</v>
+        <v>256</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>73</v>
@@ -5567,7 +5425,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5578,7 +5436,7 @@
         <v>74</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>73</v>
@@ -5587,16 +5445,16 @@
         <v>73</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>253</v>
+        <v>161</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>254</v>
+        <v>162</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5623,13 +5481,13 @@
         <v>73</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>255</v>
+        <v>73</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>256</v>
+        <v>73</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>73</v>
@@ -5647,28 +5505,28 @@
         <v>73</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>252</v>
+        <v>163</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>257</v>
+        <v>73</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>73</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41">
@@ -5677,7 +5535,7 @@
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -5693,18 +5551,20 @@
         <v>73</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>259</v>
+        <v>129</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>260</v>
+        <v>130</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>73</v>
@@ -5753,7 +5613,7 @@
         <v>73</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>258</v>
+        <v>169</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>74</v>
@@ -5765,53 +5625,57 @@
         <v>73</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>262</v>
+        <v>73</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>73</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>73</v>
+        <v>260</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>165</v>
+        <v>261</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>73</v>
       </c>
@@ -5859,19 +5723,19 @@
         <v>73</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>167</v>
+        <v>263</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>73</v>
@@ -5880,7 +5744,7 @@
         <v>73</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>143</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43">
@@ -5889,14 +5753,14 @@
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>73</v>
@@ -5905,20 +5769,18 @@
         <v>73</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>129</v>
+        <v>265</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>73</v>
@@ -5943,13 +5805,13 @@
         <v>73</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>73</v>
+        <v>267</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>73</v>
+        <v>268</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>73</v>
@@ -5967,69 +5829,65 @@
         <v>73</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>173</v>
+        <v>264</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>73</v>
+        <v>269</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>143</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>266</v>
+        <v>73</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>128</v>
+        <v>271</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>73</v>
       </c>
@@ -6077,2053 +5935,27 @@
         <v>73</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>73</v>
+        <v>274</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="F45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P45" s="2"/>
-      <c r="Q45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F46" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P46" s="2"/>
-      <c r="Q46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P47" s="2"/>
-      <c r="Q47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="K48" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P48" s="2"/>
-      <c r="Q48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F49" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="K49" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P49" s="2"/>
-      <c r="Q49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P50" s="2"/>
-      <c r="Q50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="F51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P51" s="2"/>
-      <c r="Q51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D52" s="2"/>
-      <c r="E52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P52" s="2"/>
-      <c r="Q52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D53" s="2"/>
-      <c r="E53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P53" s="2"/>
-      <c r="Q53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P54" s="2"/>
-      <c r="Q54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D55" s="2"/>
-      <c r="E55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P55" s="2"/>
-      <c r="Q55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="D56" s="2"/>
-      <c r="E56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P56" s="2"/>
-      <c r="Q56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="B57" s="2"/>
-      <c r="C57" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="D57" s="2"/>
-      <c r="E57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P57" s="2"/>
-      <c r="Q57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D58" s="2"/>
-      <c r="E58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P58" s="2"/>
-      <c r="Q58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="B59" s="2"/>
-      <c r="C59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D59" s="2"/>
-      <c r="E59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
-      <c r="O59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P59" s="2"/>
-      <c r="Q59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="B60" s="2"/>
-      <c r="C60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D60" s="2"/>
-      <c r="E60" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
-      <c r="O60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P60" s="2"/>
-      <c r="Q60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="B61" s="2"/>
-      <c r="C61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D61" s="2"/>
-      <c r="E61" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
-      <c r="O61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P61" s="2"/>
-      <c r="Q61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="B62" s="2"/>
-      <c r="C62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D62" s="2"/>
-      <c r="E62" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
-      <c r="O62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P62" s="2"/>
-      <c r="Q62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="B63" s="2"/>
-      <c r="C63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D63" s="2"/>
-      <c r="E63" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
-      <c r="O63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P63" s="2"/>
-      <c r="Q63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL63" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T21:11:51+00:00</t>
+    <t>2022-11-16T21:23:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T21:23:11+00:00</t>
+    <t>2022-11-17T06:36:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="322">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://unicom-project.eu/fhir/StructureDefinition/PPLManufacturedItemDefinition</t>
+    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLManufacturedItemDefinition</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T06:36:33+00:00</t>
+    <t>2022-11-17T17:44:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>4.3.0</t>
+    <t>5.0.0-ballot</t>
   </si>
   <si>
     <t>Kind</t>
@@ -277,7 +277,7 @@
     <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
   </si>
   <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>Within the context of the FHIR RESTful interactions, the resource has an id except for cases like the create and conditional update. Otherwise, the use of the resouce id depends on the given use case.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -367,7 +367,7 @@
     <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
   </si>
   <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>Contained resources do not have a narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -390,17 +390,13 @@
     <t>Contained, inline Resources</t>
   </si>
   <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, nor can they have their own independent transaction scope. This is allowed to be a Parameters resource if and only if it is referenced by a resource that provides context/meaning.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags in their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dom-r4b:Containing new R4B resources within R4 resources may cause interoperability issues if instances are shared with R4 systems {($this is Citation or $this is Evidence or $this is EvidenceReport or $this is EvidenceVariable or $this is MedicinalProductDefinition or $this is PackagedProductDefinition or $this is AdministrableProductDefinition or $this is Ingredient or $this is ClinicalUseDefinition or $this is RegulatedAuthorization or $this is SubstanceDefinition or $this is SubscriptionStatus or $this is SubscriptionTopic) implies (%resource is Citation or %resource is Evidence or %resource is EvidenceReport or %resource is EvidenceVariable or %resource is MedicinalProductDefinition or %resource is PackagedProductDefinition or %resource is AdministrableProductDefinition or %resource is Ingredient or %resource is ClinicalUseDefinition or %resource is RegulatedAuthorization or %resource is SubstanceDefinition or %resource is SubscriptionStatus or %resource is SubscriptionTopic)}
-</t>
   </si>
   <si>
     <t>N/A</t>
@@ -443,7 +439,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/2021Mar/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://build.fhir.org/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -465,6 +461,9 @@
     <t>n/a</t>
   </si>
   <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
     <t>ManufacturedItemDefinition.status</t>
   </si>
   <si>
@@ -483,7 +482,20 @@
     <t>The lifecycle status of an artifact.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/publication-status|4.3.0</t>
+    <t>http://hl7.org/fhir/ValueSet/publication-status|5.0.0-ballot</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>A descriptive name applied to this item</t>
+  </si>
+  <si>
+    <t>A descriptive name applied to this item.</t>
   </si>
   <si>
     <t>ManufacturedItemDefinition.manufacturedDoseForm</t>
@@ -582,7 +594,7 @@
     <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
   </si>
   <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should be an absolute reference to some definition that establishes the system clearly and unambiguously.</t>
   </si>
   <si>
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
@@ -598,10 +610,6 @@
   </si>
   <si>
     <t>ManufacturedItemDefinition.manufacturedDoseForm.coding.version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Version of the system - if relevant</t>
@@ -762,13 +770,26 @@
 </t>
   </si>
   <si>
-    <t>Manufacturer of the item (Note that this should be named "manufacturer" but it currently causes technical issues)</t>
-  </si>
-  <si>
-    <t>Manufacturer of the item (Note that this should be named "manufacturer" but it currently causes technical issues).</t>
+    <t>Manufacturer of the item, one of several possible</t>
+  </si>
+  <si>
+    <t>Manufacturer of the item, one of several possible.</t>
   </si>
   <si>
     <t>Manufactured Item.Manufacturer / Establishment (Organisation)</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.marketingStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MarketingStatus
+</t>
+  </si>
+  <si>
+    <t>Allows specifying that an item is on the market for sale, or that it is not available, and the dates and locations associated</t>
+  </si>
+  <si>
+    <t>Allows specifying that an item is on the market for sale, or that it is not available, and the dates and locations associated.</t>
   </si>
   <si>
     <t>ManufacturedItemDefinition.ingredient</t>
@@ -802,10 +823,6 @@
     <t>General characteristics of this item.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
-</t>
-  </si>
-  <si>
     <t>Manufactured Item.Physical Characteristics</t>
   </si>
   <si>
@@ -864,6 +881,131 @@
   </si>
   <si>
     <t>Physical Characteristics, attribute's value</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.component</t>
+  </si>
+  <si>
+    <t>Physical parts of the manufactured item, that it is intrisically made from. This is distinct from the ingredients that are part of its chemical makeup</t>
+  </si>
+  <si>
+    <t>Physical parts of the manufactured item, that it is intrisically made from. This is distinct from the ingredients that are part of its chemical makeup.</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.component.id</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.component.extension</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.component.modifierExtension</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.component.type</t>
+  </si>
+  <si>
+    <t>Defining type of the component e.g. shell, layer, ink</t>
+  </si>
+  <si>
+    <t>Defining type of the component e.g. shell, layer, ink.</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.component.function</t>
+  </si>
+  <si>
+    <t>The function of this component within the item e.g. delivers active ingredient, masks taste</t>
+  </si>
+  <si>
+    <t>The function of this component within the item e.g. delivers active ingredient, masks taste.</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.component.amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity
+</t>
+  </si>
+  <si>
+    <t>The measurable amount of substance in this component, expressable in different ways (e.g. by mass or volume)</t>
+  </si>
+  <si>
+    <t>The measurable amount of substance in this component, expressable in different ways (e.g. by mass or volume).</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.component.constituent</t>
+  </si>
+  <si>
+    <t>A reference to an constituent of the manufactured item as a whole, linked here so that its component location within the item can be indicated. This not where the item's ingredient are primarily stated (for which see Ingredient.for or ManufacturedItemDefinition.ingredient)</t>
+  </si>
+  <si>
+    <t>A reference to an constituent of the manufactured item as a whole, linked here so that its component location within the item can be indicated. This not where the item's ingredient are primarily stated (for which see Ingredient.for or ManufacturedItemDefinition.ingredient).</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.component.constituent.id</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.component.constituent.extension</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.component.constituent.modifierExtension</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.component.constituent.amount</t>
+  </si>
+  <si>
+    <t>The measurable amount of this constituent in this component, expressable in different ways (e.g. by mass or volume)</t>
+  </si>
+  <si>
+    <t>The measurable amount of this constituent in this component, expressable in different ways (e.g. by mass or volume).</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.component.constituent.location</t>
+  </si>
+  <si>
+    <t>The type of location of the constituent within this component e.g. intragranular, blend</t>
+  </si>
+  <si>
+    <t>The type of location of the constituent within this component e.g. intragranular, blend.</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.component.constituent.function</t>
+  </si>
+  <si>
+    <t>The function of this constituent within the component e.g. binder</t>
+  </si>
+  <si>
+    <t>The function of this constituent within the component e.g. binder.</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.component.constituent.locationForIngredient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableReference(Ingredient)
+</t>
+  </si>
+  <si>
+    <t>An ingredient that this component is the location of in this manufactured item. The component is physically made of this ingredient (and possibly others), rather than just being a container for it</t>
+  </si>
+  <si>
+    <t>An ingredient that this component is the location for in this manufactured item. The component is physically made of this ingredient (and possibly others), rather than just being a container for it.</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.component.property</t>
+  </si>
+  <si>
+    <t>General characteristics of this component</t>
+  </si>
+  <si>
+    <t>General characteristics of this component.</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.component.component</t>
+  </si>
+  <si>
+    <t>A component that this component contains or is made from</t>
+  </si>
+  <si>
+    <t>A component that this component contains or is made from.</t>
   </si>
 </sst>
 </file>
@@ -1160,7 +1302,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL44"/>
+  <dimension ref="A1:AL63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1169,7 +1311,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="68.91796875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="68.9453125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1179,7 +1321,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="132.91015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="252.22265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1193,13 +1335,13 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="104.4296875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.50390625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.76953125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="49.6796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="68.9453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
@@ -2065,25 +2207,25 @@
         <v>73</v>
       </c>
       <c r="AI8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL8" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL8" t="s" s="2">
-        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2102,16 +2244,16 @@
         <v>73</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2161,7 +2303,7 @@
         <v>73</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>74</v>
@@ -2173,7 +2315,7 @@
         <v>73</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>73</v>
@@ -2182,16 +2324,16 @@
         <v>73</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2207,22 +2349,22 @@
         <v>83</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>73</v>
@@ -2271,7 +2413,7 @@
         <v>73</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>74</v>
@@ -2283,7 +2425,7 @@
         <v>73</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>73</v>
@@ -2292,12 +2434,12 @@
         <v>73</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2320,13 +2462,13 @@
         <v>83</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2377,7 +2519,7 @@
         <v>73</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>74</v>
@@ -2392,10 +2534,10 @@
         <v>94</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>73</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>73</v>
@@ -2500,7 +2642,7 @@
         <v>94</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>73</v>
@@ -2519,7 +2661,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>82</v>
@@ -2567,13 +2709,13 @@
         <v>73</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>156</v>
+        <v>73</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>73</v>
@@ -2594,7 +2736,7 @@
         <v>152</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>82</v>
@@ -2606,10 +2748,10 @@
         <v>94</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>73</v>
@@ -2617,7 +2759,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2625,7 +2767,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>82</v>
@@ -2637,16 +2779,16 @@
         <v>73</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>84</v>
+        <v>157</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2673,13 +2815,13 @@
         <v>73</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>73</v>
+        <v>162</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>73</v>
@@ -2697,10 +2839,10 @@
         <v>73</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>82</v>
@@ -2709,16 +2851,16 @@
         <v>73</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>73</v>
+        <v>163</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>144</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15">
@@ -2727,14 +2869,14 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>73</v>
@@ -2746,17 +2888,15 @@
         <v>73</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>73</v>
@@ -2793,31 +2933,31 @@
         <v>73</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>166</v>
+        <v>73</v>
       </c>
       <c r="AB15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE15" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AC15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>169</v>
-      </c>
       <c r="AF15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>73</v>
@@ -2826,16 +2966,16 @@
         <v>73</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -2851,23 +2991,21 @@
         <v>73</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>171</v>
+        <v>128</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>172</v>
+        <v>129</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>73</v>
       </c>
@@ -2903,19 +3041,19 @@
         <v>73</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>73</v>
+        <v>170</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>73</v>
+        <v>171</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>73</v>
+        <v>172</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>74</v>
@@ -2927,7 +3065,7 @@
         <v>73</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>73</v>
@@ -2936,12 +3074,12 @@
         <v>73</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>177</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2952,7 +3090,7 @@
         <v>74</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>73</v>
@@ -2961,19 +3099,23 @@
         <v>73</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>84</v>
+        <v>175</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="O17" t="s" s="2">
         <v>73</v>
       </c>
@@ -3021,19 +3163,19 @@
         <v>73</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>73</v>
@@ -3042,23 +3184,23 @@
         <v>73</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>144</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>73</v>
@@ -3070,17 +3212,15 @@
         <v>73</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>73</v>
@@ -3117,31 +3257,31 @@
         <v>73</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>166</v>
+        <v>73</v>
       </c>
       <c r="AB18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE18" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AC18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>169</v>
-      </c>
       <c r="AF18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>73</v>
@@ -3150,23 +3290,23 @@
         <v>73</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>73</v>
@@ -3175,23 +3315,21 @@
         <v>73</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>181</v>
+        <v>129</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>73</v>
       </c>
@@ -3200,7 +3338,7 @@
         <v>73</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>185</v>
+        <v>73</v>
       </c>
       <c r="S19" t="s" s="2">
         <v>73</v>
@@ -3227,31 +3365,31 @@
         <v>73</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>73</v>
+        <v>170</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>73</v>
+        <v>171</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>73</v>
+        <v>172</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>73</v>
@@ -3260,12 +3398,12 @@
         <v>73</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>187</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3288,18 +3426,20 @@
         <v>83</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>189</v>
+        <v>96</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>73</v>
       </c>
@@ -3308,7 +3448,7 @@
         <v>73</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>73</v>
+        <v>189</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>73</v>
@@ -3347,7 +3487,7 @@
         <v>73</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>74</v>
@@ -3368,12 +3508,12 @@
         <v>73</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3396,18 +3536,18 @@
         <v>83</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>102</v>
+        <v>153</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>73</v>
       </c>
@@ -3455,7 +3595,7 @@
         <v>73</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>74</v>
@@ -3476,12 +3616,12 @@
         <v>73</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3504,17 +3644,17 @@
         <v>83</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>73</v>
@@ -3563,7 +3703,7 @@
         <v>73</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>74</v>
@@ -3584,12 +3724,12 @@
         <v>73</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3612,19 +3752,17 @@
         <v>83</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>208</v>
+        <v>153</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>73</v>
@@ -3673,7 +3811,7 @@
         <v>73</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>74</v>
@@ -3694,12 +3832,12 @@
         <v>73</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3722,19 +3860,19 @@
         <v>83</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>73</v>
@@ -3783,7 +3921,7 @@
         <v>73</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>74</v>
@@ -3804,12 +3942,12 @@
         <v>73</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3817,7 +3955,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>82</v>
@@ -3835,13 +3973,17 @@
         <v>153</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>73</v>
       </c>
@@ -3865,13 +4007,13 @@
         <v>73</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>156</v>
+        <v>73</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>225</v>
+        <v>73</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>226</v>
+        <v>73</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>73</v>
@@ -3889,7 +4031,7 @@
         <v>73</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>74</v>
@@ -3904,18 +4046,18 @@
         <v>94</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>227</v>
+        <v>73</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>73</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3923,7 +4065,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>82</v>
@@ -3935,16 +4077,16 @@
         <v>73</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>84</v>
+        <v>157</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>161</v>
+        <v>226</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>162</v>
+        <v>227</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3971,13 +4113,13 @@
         <v>73</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>73</v>
+        <v>228</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>73</v>
+        <v>229</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>73</v>
@@ -3995,7 +4137,7 @@
         <v>73</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>163</v>
+        <v>225</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>74</v>
@@ -4007,32 +4149,32 @@
         <v>73</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>73</v>
+        <v>230</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>144</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>73</v>
@@ -4044,17 +4186,15 @@
         <v>73</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>73</v>
@@ -4091,31 +4231,31 @@
         <v>73</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>166</v>
+        <v>73</v>
       </c>
       <c r="AB27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE27" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AC27" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>169</v>
-      </c>
       <c r="AF27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>73</v>
@@ -4124,16 +4264,16 @@
         <v>73</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4149,23 +4289,21 @@
         <v>73</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>171</v>
+        <v>128</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>172</v>
+        <v>129</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>73</v>
       </c>
@@ -4201,19 +4339,19 @@
         <v>73</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>73</v>
+        <v>170</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>73</v>
+        <v>171</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>73</v>
+        <v>172</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>74</v>
@@ -4225,7 +4363,7 @@
         <v>73</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>73</v>
@@ -4234,12 +4372,12 @@
         <v>73</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>177</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4250,7 +4388,7 @@
         <v>74</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>73</v>
@@ -4259,19 +4397,23 @@
         <v>73</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>84</v>
+        <v>175</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>73</v>
       </c>
@@ -4319,19 +4461,19 @@
         <v>73</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>73</v>
@@ -4340,23 +4482,23 @@
         <v>73</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>144</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>73</v>
@@ -4368,17 +4510,15 @@
         <v>73</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>73</v>
@@ -4415,31 +4555,31 @@
         <v>73</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>166</v>
+        <v>73</v>
       </c>
       <c r="AB30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE30" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AC30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>169</v>
-      </c>
       <c r="AF30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>73</v>
@@ -4448,23 +4588,23 @@
         <v>73</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>73</v>
@@ -4473,23 +4613,21 @@
         <v>73</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>181</v>
+        <v>129</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>73</v>
       </c>
@@ -4498,7 +4636,7 @@
         <v>73</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>234</v>
+        <v>73</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>73</v>
@@ -4525,31 +4663,31 @@
         <v>73</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>73</v>
+        <v>170</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>73</v>
+        <v>171</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>73</v>
+        <v>172</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>73</v>
@@ -4558,12 +4696,12 @@
         <v>73</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>187</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4586,18 +4724,20 @@
         <v>83</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>189</v>
+        <v>96</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>73</v>
       </c>
@@ -4606,7 +4746,7 @@
         <v>73</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>73</v>
+        <v>237</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>73</v>
@@ -4645,7 +4785,7 @@
         <v>73</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>74</v>
@@ -4666,12 +4806,12 @@
         <v>73</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4694,18 +4834,18 @@
         <v>83</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>102</v>
+        <v>153</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="M33" s="2"/>
-      <c r="N33" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>73</v>
       </c>
@@ -4753,7 +4893,7 @@
         <v>73</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>74</v>
@@ -4774,12 +4914,12 @@
         <v>73</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4802,17 +4942,17 @@
         <v>83</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>73</v>
@@ -4861,7 +5001,7 @@
         <v>73</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>74</v>
@@ -4882,12 +5022,12 @@
         <v>73</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4910,19 +5050,17 @@
         <v>83</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>208</v>
+        <v>153</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>73</v>
@@ -4971,7 +5109,7 @@
         <v>73</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>74</v>
@@ -4992,12 +5130,12 @@
         <v>73</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5020,19 +5158,19 @@
         <v>83</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>73</v>
@@ -5081,7 +5219,7 @@
         <v>73</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>74</v>
@@ -5102,12 +5240,12 @@
         <v>73</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5118,7 +5256,7 @@
         <v>74</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>73</v>
@@ -5130,16 +5268,20 @@
         <v>83</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>241</v>
+        <v>153</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>73</v>
       </c>
@@ -5187,13 +5329,13 @@
         <v>73</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>73</v>
@@ -5202,18 +5344,18 @@
         <v>94</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>244</v>
+        <v>73</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>73</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5236,13 +5378,13 @@
         <v>83</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>153</v>
+        <v>244</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5269,13 +5411,13 @@
         <v>73</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>156</v>
+        <v>73</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>248</v>
+        <v>73</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>249</v>
+        <v>73</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>73</v>
@@ -5293,7 +5435,7 @@
         <v>73</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>74</v>
@@ -5308,7 +5450,7 @@
         <v>94</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>73</v>
@@ -5319,7 +5461,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5342,13 +5484,13 @@
         <v>83</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5399,7 +5541,7 @@
         <v>73</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>74</v>
@@ -5411,10 +5553,10 @@
         <v>73</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>255</v>
+        <v>94</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>256</v>
+        <v>143</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>73</v>
@@ -5425,7 +5567,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5436,7 +5578,7 @@
         <v>74</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>73</v>
@@ -5445,16 +5587,16 @@
         <v>73</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>161</v>
+        <v>253</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>162</v>
+        <v>254</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5481,13 +5623,13 @@
         <v>73</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>73</v>
+        <v>255</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>73</v>
+        <v>256</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>73</v>
@@ -5505,28 +5647,28 @@
         <v>73</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>163</v>
+        <v>252</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>73</v>
+        <v>257</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>144</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41">
@@ -5535,7 +5677,7 @@
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -5551,20 +5693,18 @@
         <v>73</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>129</v>
+        <v>259</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>73</v>
@@ -5613,7 +5753,7 @@
         <v>73</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>169</v>
+        <v>258</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>74</v>
@@ -5625,57 +5765,53 @@
         <v>73</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>73</v>
+        <v>262</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>144</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>260</v>
+        <v>73</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>261</v>
+        <v>165</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>73</v>
       </c>
@@ -5723,19 +5859,19 @@
         <v>73</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>263</v>
+        <v>167</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>73</v>
@@ -5744,7 +5880,7 @@
         <v>73</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>126</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43">
@@ -5753,14 +5889,14 @@
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>73</v>
@@ -5769,18 +5905,20 @@
         <v>73</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>265</v>
+        <v>129</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>73</v>
@@ -5805,13 +5943,13 @@
         <v>73</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>156</v>
+        <v>73</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>267</v>
+        <v>73</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>268</v>
+        <v>73</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>73</v>
@@ -5829,65 +5967,69 @@
         <v>73</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>264</v>
+        <v>173</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>269</v>
+        <v>73</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>73</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>73</v>
+        <v>266</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>271</v>
+        <v>128</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>73</v>
       </c>
@@ -5935,27 +6077,2053 @@
         <v>73</v>
       </c>
       <c r="AE44" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="AF44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG44" t="s" s="2">
+      <c r="B45" s="2"/>
+      <c r="C45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="AH44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI44" t="s" s="2">
+      <c r="F45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI45" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AJ44" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AJ45" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL63" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="275">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLManufacturedItemDefinition</t>
+    <t>http://unicom-project.eu/fhir/StructureDefinition/PPLManufacturedItemDefinition</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T17:44:56+00:00</t>
+    <t>2022-11-18T19:44:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>4.3.0</t>
   </si>
   <si>
     <t>Kind</t>
@@ -277,7 +277,7 @@
     <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
   </si>
   <si>
-    <t>Within the context of the FHIR RESTful interactions, the resource has an id except for cases like the create and conditional update. Otherwise, the use of the resouce id depends on the given use case.</t>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -367,7 +367,7 @@
     <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
   </si>
   <si>
-    <t>Contained resources do not have a narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -390,13 +390,17 @@
     <t>Contained, inline Resources</t>
   </si>
   <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, nor can they have their own independent transaction scope. This is allowed to be a Parameters resource if and only if it is referenced by a resource that provides context/meaning.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags in their meta elements, but SHALL NOT have security labels.</t>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dom-r4b:Containing new R4B resources within R4 resources may cause interoperability issues if instances are shared with R4 systems {($this is Citation or $this is Evidence or $this is EvidenceReport or $this is EvidenceVariable or $this is MedicinalProductDefinition or $this is PackagedProductDefinition or $this is AdministrableProductDefinition or $this is Ingredient or $this is ClinicalUseDefinition or $this is RegulatedAuthorization or $this is SubstanceDefinition or $this is SubscriptionStatus or $this is SubscriptionTopic) implies (%resource is Citation or %resource is Evidence or %resource is EvidenceReport or %resource is EvidenceVariable or %resource is MedicinalProductDefinition or %resource is PackagedProductDefinition or %resource is AdministrableProductDefinition or %resource is Ingredient or %resource is ClinicalUseDefinition or %resource is RegulatedAuthorization or %resource is SubstanceDefinition or %resource is SubscriptionStatus or %resource is SubscriptionTopic)}
+</t>
   </si>
   <si>
     <t>N/A</t>
@@ -439,7 +443,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://build.fhir.org/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/2021Mar/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -461,9 +465,6 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
     <t>ManufacturedItemDefinition.status</t>
   </si>
   <si>
@@ -482,136 +483,127 @@
     <t>The lifecycle status of an artifact.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/publication-status|5.0.0-ballot</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.name</t>
+    <t>http://hl7.org/fhir/ValueSet/publication-status|4.3.0</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.manufacturedDoseForm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Dose form of the manufactured item (before preparing for administration)</t>
+  </si>
+  <si>
+    <t>EMA IG 4.11.3</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Dose form for a medication, in the form suitable for administering to the patient, after mixing, where necessary.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/manufactured-dose-form</t>
+  </si>
+  <si>
+    <t>Manufactured Item.Manufactured Dose Form</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.manufacturedDoseForm.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.manufacturedDoseForm.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.manufacturedDoseForm.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.manufacturedDoseForm.coding.id</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.manufacturedDoseForm.coding.extension</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.manufacturedDoseForm.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://spor.ema.europa.eu/v1/lists/200000000004</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.manufacturedDoseForm.coding.version</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>A descriptive name applied to this item</t>
-  </si>
-  <si>
-    <t>A descriptive name applied to this item.</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.manufacturedDoseForm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Dose form of the manufactured item (before preparing for administration)</t>
-  </si>
-  <si>
-    <t>EMA IG 4.11.3</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Dose form for a medication, in the form suitable for administering to the patient, after mixing, where necessary.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/manufactured-dose-form</t>
-  </si>
-  <si>
-    <t>Manufactured Item.Manufactured Dose Form</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.manufacturedDoseForm.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.manufacturedDoseForm.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.manufacturedDoseForm.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.manufacturedDoseForm.coding.id</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.manufacturedDoseForm.coding.extension</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.manufacturedDoseForm.coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should be an absolute reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>http://spor.ema.europa.eu/v1/lists/200000000004</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.manufacturedDoseForm.coding.version</t>
-  </si>
-  <si>
     <t>Version of the system - if relevant</t>
   </si>
   <si>
@@ -770,26 +762,13 @@
 </t>
   </si>
   <si>
-    <t>Manufacturer of the item, one of several possible</t>
-  </si>
-  <si>
-    <t>Manufacturer of the item, one of several possible.</t>
+    <t>Manufacturer of the item (Note that this should be named "manufacturer" but it currently causes technical issues)</t>
+  </si>
+  <si>
+    <t>Manufacturer of the item (Note that this should be named "manufacturer" but it currently causes technical issues).</t>
   </si>
   <si>
     <t>Manufactured Item.Manufacturer / Establishment (Organisation)</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.marketingStatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MarketingStatus
-</t>
-  </si>
-  <si>
-    <t>Allows specifying that an item is on the market for sale, or that it is not available, and the dates and locations associated</t>
-  </si>
-  <si>
-    <t>Allows specifying that an item is on the market for sale, or that it is not available, and the dates and locations associated.</t>
   </si>
   <si>
     <t>ManufacturedItemDefinition.ingredient</t>
@@ -823,6 +802,10 @@
     <t>General characteristics of this item.</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
+</t>
+  </si>
+  <si>
     <t>Manufactured Item.Physical Characteristics</t>
   </si>
   <si>
@@ -881,131 +864,6 @@
   </si>
   <si>
     <t>Physical Characteristics, attribute's value</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.component</t>
-  </si>
-  <si>
-    <t>Physical parts of the manufactured item, that it is intrisically made from. This is distinct from the ingredients that are part of its chemical makeup</t>
-  </si>
-  <si>
-    <t>Physical parts of the manufactured item, that it is intrisically made from. This is distinct from the ingredients that are part of its chemical makeup.</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.component.id</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.component.extension</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.component.modifierExtension</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.component.type</t>
-  </si>
-  <si>
-    <t>Defining type of the component e.g. shell, layer, ink</t>
-  </si>
-  <si>
-    <t>Defining type of the component e.g. shell, layer, ink.</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.component.function</t>
-  </si>
-  <si>
-    <t>The function of this component within the item e.g. delivers active ingredient, masks taste</t>
-  </si>
-  <si>
-    <t>The function of this component within the item e.g. delivers active ingredient, masks taste.</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.component.amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity
-</t>
-  </si>
-  <si>
-    <t>The measurable amount of substance in this component, expressable in different ways (e.g. by mass or volume)</t>
-  </si>
-  <si>
-    <t>The measurable amount of substance in this component, expressable in different ways (e.g. by mass or volume).</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.component.constituent</t>
-  </si>
-  <si>
-    <t>A reference to an constituent of the manufactured item as a whole, linked here so that its component location within the item can be indicated. This not where the item's ingredient are primarily stated (for which see Ingredient.for or ManufacturedItemDefinition.ingredient)</t>
-  </si>
-  <si>
-    <t>A reference to an constituent of the manufactured item as a whole, linked here so that its component location within the item can be indicated. This not where the item's ingredient are primarily stated (for which see Ingredient.for or ManufacturedItemDefinition.ingredient).</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.component.constituent.id</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.component.constituent.extension</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.component.constituent.modifierExtension</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.component.constituent.amount</t>
-  </si>
-  <si>
-    <t>The measurable amount of this constituent in this component, expressable in different ways (e.g. by mass or volume)</t>
-  </si>
-  <si>
-    <t>The measurable amount of this constituent in this component, expressable in different ways (e.g. by mass or volume).</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.component.constituent.location</t>
-  </si>
-  <si>
-    <t>The type of location of the constituent within this component e.g. intragranular, blend</t>
-  </si>
-  <si>
-    <t>The type of location of the constituent within this component e.g. intragranular, blend.</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.component.constituent.function</t>
-  </si>
-  <si>
-    <t>The function of this constituent within the component e.g. binder</t>
-  </si>
-  <si>
-    <t>The function of this constituent within the component e.g. binder.</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.component.constituent.locationForIngredient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableReference(Ingredient)
-</t>
-  </si>
-  <si>
-    <t>An ingredient that this component is the location of in this manufactured item. The component is physically made of this ingredient (and possibly others), rather than just being a container for it</t>
-  </si>
-  <si>
-    <t>An ingredient that this component is the location for in this manufactured item. The component is physically made of this ingredient (and possibly others), rather than just being a container for it.</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.component.property</t>
-  </si>
-  <si>
-    <t>General characteristics of this component</t>
-  </si>
-  <si>
-    <t>General characteristics of this component.</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.component.component</t>
-  </si>
-  <si>
-    <t>A component that this component contains or is made from</t>
-  </si>
-  <si>
-    <t>A component that this component contains or is made from.</t>
   </si>
 </sst>
 </file>
@@ -1302,7 +1160,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL63"/>
+  <dimension ref="A1:AL44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1311,7 +1169,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="68.9453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="68.91796875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1321,7 +1179,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="252.22265625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="132.91015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1335,13 +1193,13 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="104.4296875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.76953125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="52.50390625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="68.9453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="49.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
@@ -2207,7 +2065,7 @@
         <v>73</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>73</v>
@@ -2216,16 +2074,16 @@
         <v>73</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2244,16 +2102,16 @@
         <v>73</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2303,7 +2161,7 @@
         <v>73</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>74</v>
@@ -2315,7 +2173,7 @@
         <v>73</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>73</v>
@@ -2324,16 +2182,16 @@
         <v>73</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2349,22 +2207,22 @@
         <v>83</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>73</v>
@@ -2413,7 +2271,7 @@
         <v>73</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>74</v>
@@ -2425,7 +2283,7 @@
         <v>73</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>73</v>
@@ -2434,12 +2292,12 @@
         <v>73</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2462,13 +2320,13 @@
         <v>83</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2519,7 +2377,7 @@
         <v>73</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>74</v>
@@ -2534,10 +2392,10 @@
         <v>94</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>73</v>
@@ -2642,7 +2500,7 @@
         <v>94</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>73</v>
@@ -2661,7 +2519,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>82</v>
@@ -2709,13 +2567,13 @@
         <v>73</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>73</v>
@@ -2736,7 +2594,7 @@
         <v>152</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>82</v>
@@ -2748,10 +2606,10 @@
         <v>94</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>73</v>
@@ -2759,7 +2617,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2767,7 +2625,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>82</v>
@@ -2779,16 +2637,16 @@
         <v>73</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2815,13 +2673,13 @@
         <v>73</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>161</v>
+        <v>73</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>162</v>
+        <v>73</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>73</v>
@@ -2839,10 +2697,10 @@
         <v>73</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>82</v>
@@ -2851,16 +2709,16 @@
         <v>73</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>163</v>
+        <v>73</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>73</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15">
@@ -2869,14 +2727,14 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>73</v>
@@ -2888,15 +2746,17 @@
         <v>73</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L15" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M15" s="2"/>
+      <c r="M15" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>73</v>
@@ -2933,31 +2793,31 @@
         <v>73</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>73</v>
+        <v>166</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>73</v>
+        <v>167</v>
       </c>
       <c r="AC15" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>73</v>
+        <v>168</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>73</v>
@@ -2966,16 +2826,16 @@
         <v>73</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -2991,21 +2851,23 @@
         <v>73</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="O16" t="s" s="2">
         <v>73</v>
       </c>
@@ -3041,19 +2903,19 @@
         <v>73</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>170</v>
+        <v>73</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>171</v>
+        <v>73</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>172</v>
+        <v>73</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>74</v>
@@ -3065,7 +2927,7 @@
         <v>73</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>73</v>
@@ -3074,12 +2936,12 @@
         <v>73</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>143</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3090,7 +2952,7 @@
         <v>74</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>73</v>
@@ -3099,23 +2961,19 @@
         <v>73</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>175</v>
+        <v>84</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>73</v>
       </c>
@@ -3163,19 +3021,19 @@
         <v>73</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>73</v>
@@ -3184,23 +3042,23 @@
         <v>73</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>181</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>73</v>
@@ -3212,15 +3070,17 @@
         <v>73</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L18" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M18" s="2"/>
+      <c r="M18" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>73</v>
@@ -3257,31 +3117,31 @@
         <v>73</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>73</v>
+        <v>166</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>73</v>
+        <v>167</v>
       </c>
       <c r="AC18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>73</v>
+        <v>168</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>73</v>
@@ -3290,23 +3150,23 @@
         <v>73</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>73</v>
@@ -3315,21 +3175,23 @@
         <v>73</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>129</v>
+        <v>181</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>73</v>
       </c>
@@ -3338,7 +3200,7 @@
         <v>73</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>73</v>
+        <v>185</v>
       </c>
       <c r="S19" t="s" s="2">
         <v>73</v>
@@ -3365,31 +3227,31 @@
         <v>73</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>170</v>
+        <v>73</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>171</v>
+        <v>73</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>172</v>
+        <v>73</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>73</v>
@@ -3398,12 +3260,12 @@
         <v>73</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>143</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3426,20 +3288,18 @@
         <v>83</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>96</v>
+        <v>189</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>188</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>73</v>
       </c>
@@ -3448,7 +3308,7 @@
         <v>73</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>189</v>
+        <v>73</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>73</v>
@@ -3487,7 +3347,7 @@
         <v>73</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>74</v>
@@ -3508,12 +3368,12 @@
         <v>73</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3536,18 +3396,18 @@
         <v>83</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>153</v>
+        <v>102</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>73</v>
       </c>
@@ -3595,7 +3455,7 @@
         <v>73</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>74</v>
@@ -3616,12 +3476,12 @@
         <v>73</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3644,17 +3504,17 @@
         <v>83</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>102</v>
+        <v>189</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>73</v>
@@ -3703,7 +3563,7 @@
         <v>73</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>74</v>
@@ -3724,12 +3584,12 @@
         <v>73</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3752,17 +3612,19 @@
         <v>83</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>153</v>
+        <v>208</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="N23" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>73</v>
@@ -3811,7 +3673,7 @@
         <v>73</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>74</v>
@@ -3832,12 +3694,12 @@
         <v>73</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3860,19 +3722,19 @@
         <v>83</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>73</v>
@@ -3921,7 +3783,7 @@
         <v>73</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>74</v>
@@ -3942,12 +3804,12 @@
         <v>73</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3955,7 +3817,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>82</v>
@@ -3973,17 +3835,13 @@
         <v>153</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>73</v>
       </c>
@@ -4007,13 +3865,13 @@
         <v>73</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>73</v>
+        <v>225</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>73</v>
+        <v>226</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>73</v>
@@ -4031,7 +3889,7 @@
         <v>73</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>74</v>
@@ -4046,18 +3904,18 @@
         <v>94</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>73</v>
+        <v>227</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>224</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4065,7 +3923,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>82</v>
@@ -4077,16 +3935,16 @@
         <v>73</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>226</v>
+        <v>161</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>227</v>
+        <v>162</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4113,13 +3971,13 @@
         <v>73</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>228</v>
+        <v>73</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>229</v>
+        <v>73</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>73</v>
@@ -4137,7 +3995,7 @@
         <v>73</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>225</v>
+        <v>163</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>74</v>
@@ -4149,32 +4007,32 @@
         <v>73</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>230</v>
+        <v>73</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>73</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>73</v>
@@ -4186,15 +4044,17 @@
         <v>73</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L27" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M27" s="2"/>
+      <c r="M27" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>73</v>
@@ -4231,31 +4091,31 @@
         <v>73</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>73</v>
+        <v>166</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>73</v>
+        <v>167</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>73</v>
+        <v>168</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>73</v>
@@ -4264,16 +4124,16 @@
         <v>73</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4289,21 +4149,23 @@
         <v>73</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>73</v>
       </c>
@@ -4339,19 +4201,19 @@
         <v>73</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>170</v>
+        <v>73</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>171</v>
+        <v>73</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>172</v>
+        <v>73</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>74</v>
@@ -4363,7 +4225,7 @@
         <v>73</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>73</v>
@@ -4372,12 +4234,12 @@
         <v>73</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>143</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4388,7 +4250,7 @@
         <v>74</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>73</v>
@@ -4397,23 +4259,19 @@
         <v>73</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>175</v>
+        <v>84</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>73</v>
       </c>
@@ -4461,19 +4319,19 @@
         <v>73</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>73</v>
@@ -4482,23 +4340,23 @@
         <v>73</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>181</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>73</v>
@@ -4510,15 +4368,17 @@
         <v>73</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L30" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M30" s="2"/>
+      <c r="M30" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>73</v>
@@ -4555,31 +4415,31 @@
         <v>73</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>73</v>
+        <v>166</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>73</v>
+        <v>167</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>73</v>
+        <v>168</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>73</v>
@@ -4588,23 +4448,23 @@
         <v>73</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>73</v>
@@ -4613,21 +4473,23 @@
         <v>73</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>129</v>
+        <v>181</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>73</v>
       </c>
@@ -4636,7 +4498,7 @@
         <v>73</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>73</v>
+        <v>234</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>73</v>
@@ -4663,31 +4525,31 @@
         <v>73</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>170</v>
+        <v>73</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>171</v>
+        <v>73</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>172</v>
+        <v>73</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>73</v>
@@ -4696,12 +4558,12 @@
         <v>73</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>143</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4724,20 +4586,18 @@
         <v>83</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>96</v>
+        <v>189</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>188</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>73</v>
       </c>
@@ -4746,7 +4606,7 @@
         <v>73</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>237</v>
+        <v>73</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>73</v>
@@ -4785,7 +4645,7 @@
         <v>73</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>74</v>
@@ -4806,12 +4666,12 @@
         <v>73</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4834,18 +4694,18 @@
         <v>83</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>153</v>
+        <v>102</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>73</v>
       </c>
@@ -4893,7 +4753,7 @@
         <v>73</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>74</v>
@@ -4914,12 +4774,12 @@
         <v>73</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4942,17 +4802,17 @@
         <v>83</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>102</v>
+        <v>189</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>73</v>
@@ -5001,7 +4861,7 @@
         <v>73</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>74</v>
@@ -5022,12 +4882,12 @@
         <v>73</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5050,17 +4910,19 @@
         <v>83</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>153</v>
+        <v>208</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="N35" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>73</v>
@@ -5109,7 +4971,7 @@
         <v>73</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>74</v>
@@ -5130,12 +4992,12 @@
         <v>73</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5158,19 +5020,19 @@
         <v>83</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>73</v>
@@ -5219,7 +5081,7 @@
         <v>73</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>74</v>
@@ -5240,12 +5102,12 @@
         <v>73</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5256,7 +5118,7 @@
         <v>74</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>73</v>
@@ -5268,20 +5130,16 @@
         <v>83</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>153</v>
+        <v>241</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>73</v>
       </c>
@@ -5329,13 +5187,13 @@
         <v>73</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>73</v>
@@ -5344,18 +5202,18 @@
         <v>94</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>73</v>
+        <v>244</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>224</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5378,13 +5236,13 @@
         <v>83</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>244</v>
+        <v>153</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5411,13 +5269,13 @@
         <v>73</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>73</v>
+        <v>248</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>73</v>
+        <v>249</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>73</v>
@@ -5435,7 +5293,7 @@
         <v>73</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>74</v>
@@ -5450,7 +5308,7 @@
         <v>94</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>73</v>
@@ -5461,7 +5319,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5484,13 +5342,13 @@
         <v>83</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5541,7 +5399,7 @@
         <v>73</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>74</v>
@@ -5553,10 +5411,10 @@
         <v>73</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>94</v>
+        <v>255</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>143</v>
+        <v>256</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>73</v>
@@ -5567,7 +5425,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5578,7 +5436,7 @@
         <v>74</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>73</v>
@@ -5587,16 +5445,16 @@
         <v>73</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>253</v>
+        <v>161</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>254</v>
+        <v>162</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5623,13 +5481,13 @@
         <v>73</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>255</v>
+        <v>73</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>256</v>
+        <v>73</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>73</v>
@@ -5647,28 +5505,28 @@
         <v>73</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>252</v>
+        <v>163</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>257</v>
+        <v>73</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>73</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41">
@@ -5677,7 +5535,7 @@
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -5693,18 +5551,20 @@
         <v>73</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>259</v>
+        <v>129</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>260</v>
+        <v>130</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>73</v>
@@ -5753,7 +5613,7 @@
         <v>73</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>258</v>
+        <v>169</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>74</v>
@@ -5765,53 +5625,57 @@
         <v>73</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>262</v>
+        <v>73</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>73</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>73</v>
+        <v>260</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>165</v>
+        <v>261</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>73</v>
       </c>
@@ -5859,19 +5723,19 @@
         <v>73</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>167</v>
+        <v>263</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>73</v>
@@ -5880,7 +5744,7 @@
         <v>73</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>143</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43">
@@ -5889,14 +5753,14 @@
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>73</v>
@@ -5905,20 +5769,18 @@
         <v>73</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>129</v>
+        <v>265</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>73</v>
@@ -5943,13 +5805,13 @@
         <v>73</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>73</v>
+        <v>267</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>73</v>
+        <v>268</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>73</v>
@@ -5967,69 +5829,65 @@
         <v>73</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>173</v>
+        <v>264</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>73</v>
+        <v>269</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>143</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>266</v>
+        <v>73</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>128</v>
+        <v>271</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>73</v>
       </c>
@@ -6077,2053 +5935,27 @@
         <v>73</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>73</v>
+        <v>274</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="F45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P45" s="2"/>
-      <c r="Q45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F46" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P46" s="2"/>
-      <c r="Q46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P47" s="2"/>
-      <c r="Q47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="K48" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P48" s="2"/>
-      <c r="Q48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F49" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="K49" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P49" s="2"/>
-      <c r="Q49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P50" s="2"/>
-      <c r="Q50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="F51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P51" s="2"/>
-      <c r="Q51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D52" s="2"/>
-      <c r="E52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P52" s="2"/>
-      <c r="Q52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D53" s="2"/>
-      <c r="E53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P53" s="2"/>
-      <c r="Q53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P54" s="2"/>
-      <c r="Q54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D55" s="2"/>
-      <c r="E55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P55" s="2"/>
-      <c r="Q55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="D56" s="2"/>
-      <c r="E56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P56" s="2"/>
-      <c r="Q56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="B57" s="2"/>
-      <c r="C57" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="D57" s="2"/>
-      <c r="E57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P57" s="2"/>
-      <c r="Q57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D58" s="2"/>
-      <c r="E58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P58" s="2"/>
-      <c r="Q58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="B59" s="2"/>
-      <c r="C59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D59" s="2"/>
-      <c r="E59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
-      <c r="O59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P59" s="2"/>
-      <c r="Q59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="B60" s="2"/>
-      <c r="C60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D60" s="2"/>
-      <c r="E60" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
-      <c r="O60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P60" s="2"/>
-      <c r="Q60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="B61" s="2"/>
-      <c r="C61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D61" s="2"/>
-      <c r="E61" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
-      <c r="O61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P61" s="2"/>
-      <c r="Q61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="B62" s="2"/>
-      <c r="C62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D62" s="2"/>
-      <c r="E62" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
-      <c r="O62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P62" s="2"/>
-      <c r="Q62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="B63" s="2"/>
-      <c r="C63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D63" s="2"/>
-      <c r="E63" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
-      <c r="O63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P63" s="2"/>
-      <c r="Q63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL63" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:44:59+00:00</t>
+    <t>2022-11-18T19:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:50:12+00:00</t>
+    <t>2022-11-18T19:51:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:51:53+00:00</t>
+    <t>2022-11-18T19:52:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:52:09+00:00</t>
+    <t>2022-11-18T19:57:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:57:45+00:00</t>
+    <t>2022-11-19T06:10:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-19T22:26:15+00:00</t>
+    <t>2022-11-19T22:53:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-19T22:53:07+00:00</t>
+    <t>2022-11-20T07:00:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T07:00:59+00:00</t>
+    <t>2022-11-20T07:03:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T07:03:41+00:00</t>
+    <t>2022-11-20T09:28:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T17:12:02+00:00</t>
+    <t>2022-11-20T17:48:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T17:48:06+00:00</t>
+    <t>2022-11-20T20:12:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T20:12:04+00:00</t>
+    <t>2022-11-20T20:23:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T20:23:35+00:00</t>
+    <t>2022-11-21T10:47:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T10:47:26+00:00</t>
+    <t>2022-11-22T13:07:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLManufacturedItemDefinition.xlsx
+++ b/StructureDefinition-PPLManufacturedItemDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T20:42:27+00:00</t>
+    <t>2022-11-24T22:13:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
